--- a/survey/f032871677f74a8a940a693187de0ca9/NW Florida Hydrologic Field Form.xlsx
+++ b/survey/f032871677f74a8a940a693187de0ca9/NW Florida Hydrologic Field Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C6823A-F831-41F0-ACFC-91FD20A08FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E304DF8A-83F5-4E84-A19D-2048B3F15EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="3420" windowWidth="22980" windowHeight="12225" tabRatio="594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44940" yWindow="2025" windowWidth="22980" windowHeight="12225" tabRatio="594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="10" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="2336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="2338">
   <si>
     <t>Question type</t>
   </si>
@@ -7171,6 +7171,12 @@
   </si>
   <si>
     <t>This is measuring voltage</t>
+  </si>
+  <si>
+    <t>PrecalibrationLevel</t>
+  </si>
+  <si>
+    <t>Precalibration Value</t>
   </si>
 </sst>
 </file>
@@ -7647,6 +7653,9 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7655,9 +7664,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8113,8 +8119,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblSurvey" displayName="tblSurvey" ref="A1:AK309" totalsRowShown="0" headerRowDxfId="28">
-  <autoFilter ref="A1:AK309" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblSurvey" displayName="tblSurvey" ref="A1:AK310" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A1:AK310" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
@@ -8504,11 +8510,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AK311"/>
+  <dimension ref="A1:AK312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK71" sqref="AK71"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK194" sqref="AK194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8638,7 +8644,7 @@
       <c r="AJ1" s="12" t="s">
         <v>1315</v>
       </c>
-      <c r="AK1" s="78" t="s">
+      <c r="AK1" s="75" t="s">
         <v>2332</v>
       </c>
     </row>
@@ -16050,89 +16056,51 @@
       <c r="AJ193" s="58"/>
     </row>
     <row r="194" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A194" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B194" s="58" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C194" s="58" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D194" s="58" t="s">
-        <v>2232</v>
-      </c>
-      <c r="E194" s="58"/>
-      <c r="F194" s="58"/>
-      <c r="G194" s="58"/>
-      <c r="H194" s="58"/>
-      <c r="I194" s="58"/>
-      <c r="J194" s="58"/>
-      <c r="K194" s="58"/>
-      <c r="L194" s="58"/>
-      <c r="M194" s="58"/>
-      <c r="N194" s="58" t="s">
-        <v>2293</v>
-      </c>
-      <c r="O194" s="58"/>
-      <c r="P194" s="58"/>
-      <c r="Q194" s="58"/>
-      <c r="R194" s="58"/>
-      <c r="S194" s="58"/>
-      <c r="T194" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="U194" s="58"/>
-      <c r="V194" s="58"/>
-      <c r="W194" s="58"/>
-      <c r="X194" s="58"/>
-      <c r="Y194" s="58"/>
-      <c r="Z194" s="58"/>
-      <c r="AA194" s="58"/>
-      <c r="AB194" s="58"/>
-      <c r="AC194" s="58"/>
-      <c r="AD194" s="58"/>
-      <c r="AE194" s="58"/>
-      <c r="AF194" s="58"/>
-      <c r="AG194" s="58"/>
-      <c r="AH194" s="58"/>
-      <c r="AI194" s="58"/>
-      <c r="AJ194" s="58"/>
+      <c r="A194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2337</v>
+      </c>
+      <c r="T194" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" s="58" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B195" s="58" t="s">
-        <v>2233</v>
+        <v>1604</v>
       </c>
       <c r="C195" s="58" t="s">
-        <v>2234</v>
-      </c>
-      <c r="D195" s="58"/>
+        <v>1896</v>
+      </c>
+      <c r="D195" s="58" t="s">
+        <v>2232</v>
+      </c>
       <c r="E195" s="58"/>
-      <c r="F195" s="58" t="s">
-        <v>38</v>
-      </c>
+      <c r="F195" s="58"/>
       <c r="G195" s="58"/>
       <c r="H195" s="58"/>
-      <c r="I195" s="58" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I195" s="58"/>
       <c r="J195" s="58"/>
-      <c r="K195" s="58" t="s">
-        <v>2235</v>
-      </c>
+      <c r="K195" s="58"/>
       <c r="L195" s="58"/>
       <c r="M195" s="58"/>
-      <c r="N195" s="58"/>
+      <c r="N195" s="58" t="s">
+        <v>2293</v>
+      </c>
       <c r="O195" s="58"/>
       <c r="P195" s="58"/>
       <c r="Q195" s="58"/>
       <c r="R195" s="58"/>
       <c r="S195" s="58"/>
       <c r="T195" s="58" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U195" s="58"/>
       <c r="V195" s="58"/>
@@ -16153,36 +16121,38 @@
     </row>
     <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" s="58" t="s">
-        <v>1611</v>
+        <v>11</v>
       </c>
       <c r="B196" s="58" t="s">
-        <v>1613</v>
+        <v>2233</v>
       </c>
       <c r="C196" s="58" t="s">
-        <v>1897</v>
+        <v>2234</v>
       </c>
       <c r="D196" s="58"/>
       <c r="E196" s="58"/>
       <c r="F196" s="58" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G196" s="58"/>
       <c r="H196" s="58"/>
-      <c r="I196" s="58"/>
+      <c r="I196" s="58" t="s">
+        <v>1735</v>
+      </c>
       <c r="J196" s="58"/>
-      <c r="K196" s="58"/>
+      <c r="K196" s="58" t="s">
+        <v>2235</v>
+      </c>
       <c r="L196" s="58"/>
       <c r="M196" s="58"/>
-      <c r="N196" s="58" t="s">
-        <v>2293</v>
-      </c>
+      <c r="N196" s="58"/>
       <c r="O196" s="58"/>
       <c r="P196" s="58"/>
       <c r="Q196" s="58"/>
       <c r="R196" s="58"/>
       <c r="S196" s="58"/>
       <c r="T196" s="58" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="U196" s="58"/>
       <c r="V196" s="58"/>
@@ -16202,137 +16172,135 @@
       <c r="AJ196" s="58"/>
     </row>
     <row r="197" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A197" s="61" t="s">
-        <v>4</v>
+      <c r="A197" s="58" t="s">
+        <v>1611</v>
       </c>
       <c r="B197" s="58" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C197" s="61" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D197" s="61"/>
-      <c r="E197" s="61"/>
-      <c r="F197" s="61"/>
-      <c r="G197" s="61"/>
-      <c r="H197" s="61"/>
-      <c r="I197" s="61"/>
-      <c r="J197" s="61"/>
-      <c r="K197" s="61"/>
-      <c r="L197" s="61"/>
-      <c r="M197" s="61"/>
+        <v>1613</v>
+      </c>
+      <c r="C197" s="58" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G197" s="58"/>
+      <c r="H197" s="58"/>
+      <c r="I197" s="58"/>
+      <c r="J197" s="58"/>
+      <c r="K197" s="58"/>
+      <c r="L197" s="58"/>
+      <c r="M197" s="58"/>
       <c r="N197" s="58" t="s">
         <v>2293</v>
       </c>
-      <c r="O197" s="61"/>
-      <c r="P197" s="61"/>
-      <c r="Q197" s="61"/>
-      <c r="R197" s="61"/>
-      <c r="S197" s="61"/>
+      <c r="O197" s="58"/>
+      <c r="P197" s="58"/>
+      <c r="Q197" s="58"/>
+      <c r="R197" s="58"/>
+      <c r="S197" s="58"/>
       <c r="T197" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="U197" s="61"/>
-      <c r="V197" s="61"/>
-      <c r="W197" s="61"/>
-      <c r="X197" s="61"/>
-      <c r="Y197" s="61"/>
-      <c r="Z197" s="61"/>
-      <c r="AA197" s="61"/>
-      <c r="AB197" s="61"/>
-      <c r="AC197" s="61"/>
-      <c r="AD197" s="61"/>
-      <c r="AE197" s="61"/>
-      <c r="AF197" s="61"/>
-      <c r="AG197" s="61"/>
-      <c r="AH197" s="61"/>
-      <c r="AI197" s="61"/>
-      <c r="AJ197" s="61"/>
+      <c r="U197" s="58"/>
+      <c r="V197" s="58"/>
+      <c r="W197" s="58"/>
+      <c r="X197" s="58"/>
+      <c r="Y197" s="58"/>
+      <c r="Z197" s="58"/>
+      <c r="AA197" s="58"/>
+      <c r="AB197" s="58"/>
+      <c r="AC197" s="58"/>
+      <c r="AD197" s="58"/>
+      <c r="AE197" s="58"/>
+      <c r="AF197" s="58"/>
+      <c r="AG197" s="58"/>
+      <c r="AH197" s="58"/>
+      <c r="AI197" s="58"/>
+      <c r="AJ197" s="58"/>
     </row>
     <row r="198" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A198" s="58" t="s">
-        <v>24</v>
+      <c r="A198" s="61" t="s">
+        <v>4</v>
       </c>
       <c r="B198" s="58" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C198" s="58" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D198" s="58" t="s">
-        <v>2239</v>
-      </c>
-      <c r="E198" s="58"/>
-      <c r="F198" s="58"/>
-      <c r="G198" s="58"/>
-      <c r="H198" s="58"/>
-      <c r="I198" s="58"/>
-      <c r="J198" s="58"/>
-      <c r="K198" s="58"/>
-      <c r="L198" s="58"/>
-      <c r="M198" s="58"/>
+        <v>1802</v>
+      </c>
+      <c r="C198" s="61" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D198" s="61"/>
+      <c r="E198" s="61"/>
+      <c r="F198" s="61"/>
+      <c r="G198" s="61"/>
+      <c r="H198" s="61"/>
+      <c r="I198" s="61"/>
+      <c r="J198" s="61"/>
+      <c r="K198" s="61"/>
+      <c r="L198" s="61"/>
+      <c r="M198" s="61"/>
       <c r="N198" s="58" t="s">
         <v>2293</v>
       </c>
-      <c r="O198" s="58"/>
-      <c r="P198" s="58"/>
-      <c r="Q198" s="58"/>
-      <c r="R198" s="58"/>
-      <c r="S198" s="58"/>
+      <c r="O198" s="61"/>
+      <c r="P198" s="61"/>
+      <c r="Q198" s="61"/>
+      <c r="R198" s="61"/>
+      <c r="S198" s="61"/>
       <c r="T198" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="U198" s="58"/>
-      <c r="V198" s="58"/>
-      <c r="W198" s="58"/>
-      <c r="X198" s="58"/>
-      <c r="Y198" s="58"/>
-      <c r="Z198" s="58"/>
-      <c r="AA198" s="58"/>
-      <c r="AB198" s="58"/>
-      <c r="AC198" s="58"/>
-      <c r="AD198" s="58"/>
-      <c r="AE198" s="58"/>
-      <c r="AF198" s="58"/>
-      <c r="AG198" s="58"/>
-      <c r="AH198" s="58"/>
-      <c r="AI198" s="58"/>
-      <c r="AJ198" s="58"/>
+        <v>98</v>
+      </c>
+      <c r="U198" s="61"/>
+      <c r="V198" s="61"/>
+      <c r="W198" s="61"/>
+      <c r="X198" s="61"/>
+      <c r="Y198" s="61"/>
+      <c r="Z198" s="61"/>
+      <c r="AA198" s="61"/>
+      <c r="AB198" s="61"/>
+      <c r="AC198" s="61"/>
+      <c r="AD198" s="61"/>
+      <c r="AE198" s="61"/>
+      <c r="AF198" s="61"/>
+      <c r="AG198" s="61"/>
+      <c r="AH198" s="61"/>
+      <c r="AI198" s="61"/>
+      <c r="AJ198" s="61"/>
     </row>
     <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" s="58" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B199" s="58" t="s">
-        <v>2236</v>
+        <v>1614</v>
       </c>
       <c r="C199" s="58" t="s">
-        <v>2238</v>
-      </c>
-      <c r="D199" s="58"/>
+        <v>1899</v>
+      </c>
+      <c r="D199" s="58" t="s">
+        <v>2239</v>
+      </c>
       <c r="E199" s="58"/>
-      <c r="F199" s="58" t="s">
-        <v>38</v>
-      </c>
+      <c r="F199" s="58"/>
       <c r="G199" s="58"/>
       <c r="H199" s="58"/>
-      <c r="I199" s="58" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I199" s="58"/>
       <c r="J199" s="58"/>
-      <c r="K199" s="58" t="s">
-        <v>2237</v>
-      </c>
+      <c r="K199" s="58"/>
       <c r="L199" s="58"/>
       <c r="M199" s="58"/>
-      <c r="N199" s="58"/>
+      <c r="N199" s="58" t="s">
+        <v>2293</v>
+      </c>
       <c r="O199" s="58"/>
       <c r="P199" s="58"/>
       <c r="Q199" s="58"/>
       <c r="R199" s="58"/>
       <c r="S199" s="58"/>
       <c r="T199" s="58" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U199" s="58"/>
       <c r="V199" s="58"/>
@@ -16353,13 +16321,13 @@
     </row>
     <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" s="58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B200" s="58" t="s">
-        <v>1803</v>
+        <v>2236</v>
       </c>
       <c r="C200" s="58" t="s">
-        <v>1796</v>
+        <v>2238</v>
       </c>
       <c r="D200" s="58"/>
       <c r="E200" s="58"/>
@@ -16368,16 +16336,16 @@
       </c>
       <c r="G200" s="58"/>
       <c r="H200" s="58"/>
-      <c r="I200" s="58"/>
+      <c r="I200" s="58" t="s">
+        <v>1735</v>
+      </c>
       <c r="J200" s="58"/>
       <c r="K200" s="58" t="s">
-        <v>2192</v>
+        <v>2237</v>
       </c>
       <c r="L200" s="58"/>
       <c r="M200" s="58"/>
-      <c r="N200" s="58" t="s">
-        <v>2293</v>
-      </c>
+      <c r="N200" s="58"/>
       <c r="O200" s="58"/>
       <c r="P200" s="58"/>
       <c r="Q200" s="58"/>
@@ -16408,10 +16376,10 @@
         <v>6</v>
       </c>
       <c r="B201" s="58" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C201" s="58" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="D201" s="58"/>
       <c r="E201" s="58"/>
@@ -16423,7 +16391,7 @@
       <c r="I201" s="58"/>
       <c r="J201" s="58"/>
       <c r="K201" s="58" t="s">
-        <v>1805</v>
+        <v>2192</v>
       </c>
       <c r="L201" s="58"/>
       <c r="M201" s="58"/>
@@ -16460,22 +16428,22 @@
         <v>6</v>
       </c>
       <c r="B202" s="58" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="C202" s="58" t="s">
-        <v>1894</v>
+        <v>1798</v>
       </c>
       <c r="D202" s="58"/>
       <c r="E202" s="58"/>
-      <c r="F202" s="58"/>
+      <c r="F202" s="58" t="s">
+        <v>38</v>
+      </c>
       <c r="G202" s="58"/>
       <c r="H202" s="58"/>
-      <c r="I202" s="58" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I202" s="58"/>
       <c r="J202" s="58"/>
       <c r="K202" s="58" t="s">
-        <v>1933</v>
+        <v>1805</v>
       </c>
       <c r="L202" s="58"/>
       <c r="M202" s="58"/>
@@ -16509,23 +16477,25 @@
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" s="58" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B203" s="58" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C203" s="58" t="s">
-        <v>1742</v>
+        <v>1894</v>
       </c>
       <c r="D203" s="58"/>
       <c r="E203" s="58"/>
       <c r="F203" s="58"/>
       <c r="G203" s="58"/>
       <c r="H203" s="58"/>
-      <c r="I203" s="58"/>
+      <c r="I203" s="58" t="s">
+        <v>1735</v>
+      </c>
       <c r="J203" s="58"/>
       <c r="K203" s="58" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="L203" s="58"/>
       <c r="M203" s="58"/>
@@ -16559,13 +16529,13 @@
     </row>
     <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" s="58" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B204" s="58" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C204" s="58" t="s">
-        <v>1809</v>
+        <v>1742</v>
       </c>
       <c r="D204" s="58"/>
       <c r="E204" s="58"/>
@@ -16574,11 +16544,13 @@
       <c r="H204" s="58"/>
       <c r="I204" s="58"/>
       <c r="J204" s="58"/>
-      <c r="K204" s="58"/>
+      <c r="K204" s="58" t="s">
+        <v>1934</v>
+      </c>
       <c r="L204" s="58"/>
       <c r="M204" s="58"/>
       <c r="N204" s="58" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="O204" s="58"/>
       <c r="P204" s="58"/>
@@ -16610,10 +16582,10 @@
         <v>15</v>
       </c>
       <c r="B205" s="58" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="C205" s="58" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="D205" s="58"/>
       <c r="E205" s="58"/>
@@ -16626,7 +16598,7 @@
       <c r="L205" s="58"/>
       <c r="M205" s="58"/>
       <c r="N205" s="58" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="O205" s="58"/>
       <c r="P205" s="58"/>
@@ -16655,30 +16627,26 @@
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" s="58" t="s">
-        <v>1610</v>
+        <v>15</v>
       </c>
       <c r="B206" s="58" t="s">
-        <v>1603</v>
+        <v>1810</v>
       </c>
       <c r="C206" s="58" t="s">
-        <v>1901</v>
+        <v>1811</v>
       </c>
       <c r="D206" s="58"/>
       <c r="E206" s="58"/>
-      <c r="F206" s="58" t="s">
-        <v>51</v>
-      </c>
+      <c r="F206" s="58"/>
       <c r="G206" s="58"/>
       <c r="H206" s="58"/>
       <c r="I206" s="58"/>
       <c r="J206" s="58"/>
-      <c r="K206" s="58" t="s">
-        <v>2110</v>
-      </c>
+      <c r="K206" s="58"/>
       <c r="L206" s="58"/>
       <c r="M206" s="58"/>
       <c r="N206" s="58" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="O206" s="58"/>
       <c r="P206" s="58"/>
@@ -16686,11 +16654,9 @@
       <c r="R206" s="58"/>
       <c r="S206" s="58"/>
       <c r="T206" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="U206" s="58">
-        <v>32</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="U206" s="58"/>
       <c r="V206" s="58"/>
       <c r="W206" s="58"/>
       <c r="X206" s="58"/>
@@ -16709,26 +16675,30 @@
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" s="58" t="s">
-        <v>11</v>
+        <v>1610</v>
       </c>
       <c r="B207" s="58" t="s">
-        <v>1842</v>
+        <v>1603</v>
       </c>
       <c r="C207" s="58" t="s">
-        <v>1872</v>
+        <v>1901</v>
       </c>
       <c r="D207" s="58"/>
       <c r="E207" s="58"/>
-      <c r="F207" s="58"/>
+      <c r="F207" s="58" t="s">
+        <v>51</v>
+      </c>
       <c r="G207" s="58"/>
       <c r="H207" s="58"/>
       <c r="I207" s="58"/>
       <c r="J207" s="58"/>
-      <c r="K207" s="58"/>
+      <c r="K207" s="58" t="s">
+        <v>2110</v>
+      </c>
       <c r="L207" s="58"/>
       <c r="M207" s="58"/>
       <c r="N207" s="58" t="s">
-        <v>1844</v>
+        <v>2296</v>
       </c>
       <c r="O207" s="58"/>
       <c r="P207" s="58"/>
@@ -16739,7 +16709,7 @@
         <v>102</v>
       </c>
       <c r="U207" s="58">
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="V207" s="58"/>
       <c r="W207" s="58"/>
@@ -16759,50 +16729,60 @@
     </row>
     <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" s="58" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C208" s="58" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D208" s="58"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="58"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="58"/>
+      <c r="I208" s="58"/>
+      <c r="J208" s="58"/>
+      <c r="K208" s="58"/>
+      <c r="L208" s="58"/>
+      <c r="M208" s="58"/>
+      <c r="N208" s="58" t="s">
+        <v>1844</v>
+      </c>
+      <c r="O208" s="58"/>
+      <c r="P208" s="58"/>
+      <c r="Q208" s="58"/>
+      <c r="R208" s="58"/>
+      <c r="S208" s="58"/>
+      <c r="T208" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="U208" s="58">
+        <v>1024</v>
+      </c>
+      <c r="V208" s="58"/>
+      <c r="W208" s="58"/>
+      <c r="X208" s="58"/>
+      <c r="Y208" s="58"/>
+      <c r="Z208" s="58"/>
+      <c r="AA208" s="58"/>
+      <c r="AB208" s="58"/>
+      <c r="AC208" s="58"/>
+      <c r="AD208" s="58"/>
+      <c r="AE208" s="58"/>
+      <c r="AF208" s="58"/>
+      <c r="AG208" s="58"/>
+      <c r="AH208" s="58"/>
+      <c r="AI208" s="58"/>
+      <c r="AJ208" s="58"/>
+    </row>
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A209" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B208" s="58"/>
-      <c r="C208" s="58"/>
-      <c r="D208" s="57"/>
-      <c r="E208" s="57"/>
-      <c r="F208" s="57"/>
-      <c r="G208" s="57"/>
-      <c r="H208" s="57"/>
-      <c r="I208" s="57"/>
-      <c r="J208" s="57"/>
-      <c r="K208" s="57"/>
-      <c r="L208" s="57"/>
-      <c r="M208" s="57"/>
-      <c r="N208" s="58"/>
-      <c r="O208" s="57"/>
-      <c r="P208" s="57"/>
-      <c r="Q208" s="57"/>
-      <c r="R208" s="57"/>
-      <c r="S208" s="57"/>
-      <c r="T208" s="57"/>
-      <c r="U208" s="57"/>
-      <c r="V208" s="57"/>
-      <c r="W208" s="57"/>
-      <c r="X208" s="57"/>
-      <c r="Y208" s="57"/>
-      <c r="Z208" s="57"/>
-      <c r="AA208" s="57"/>
-      <c r="AB208" s="57"/>
-      <c r="AC208" s="57"/>
-      <c r="AD208" s="57"/>
-      <c r="AE208" s="57"/>
-      <c r="AF208" s="57"/>
-      <c r="AG208" s="57"/>
-      <c r="AH208" s="57"/>
-      <c r="AI208" s="57"/>
-      <c r="AJ208" s="57"/>
-    </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A209" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B209" s="57"/>
-      <c r="C209" s="57"/>
+      <c r="B209" s="58"/>
+      <c r="C209" s="58"/>
       <c r="D209" s="57"/>
       <c r="E209" s="57"/>
       <c r="F209" s="57"/>
@@ -16813,7 +16793,7 @@
       <c r="K209" s="57"/>
       <c r="L209" s="57"/>
       <c r="M209" s="57"/>
-      <c r="N209" s="57"/>
+      <c r="N209" s="58"/>
       <c r="O209" s="57"/>
       <c r="P209" s="57"/>
       <c r="Q209" s="57"/>
@@ -16837,67 +16817,61 @@
       <c r="AI209" s="57"/>
       <c r="AJ209" s="57"/>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A211" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B211" s="59" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C211" s="59" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D211" s="59"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G211" s="59"/>
-      <c r="H211" s="59"/>
-      <c r="I211" s="59"/>
-      <c r="J211" s="59"/>
-      <c r="K211" s="59"/>
-      <c r="L211" s="59"/>
-      <c r="M211" s="59"/>
-      <c r="N211" s="59" t="s">
-        <v>1753</v>
-      </c>
-      <c r="O211" s="59"/>
-      <c r="P211" s="59"/>
-      <c r="Q211" s="59"/>
-      <c r="R211" s="59"/>
-      <c r="S211" s="59"/>
-      <c r="T211" s="59"/>
-      <c r="U211" s="59"/>
-      <c r="V211" s="66"/>
-      <c r="W211" s="66"/>
-      <c r="X211" s="66"/>
-      <c r="Y211" s="66"/>
-      <c r="Z211" s="66"/>
-      <c r="AA211" s="66"/>
-      <c r="AB211" s="66"/>
-      <c r="AC211" s="66"/>
-      <c r="AD211" s="66"/>
-      <c r="AE211" s="66"/>
-      <c r="AF211" s="66"/>
-      <c r="AG211" s="66"/>
-      <c r="AH211" s="66"/>
-      <c r="AI211" s="66"/>
-      <c r="AJ211" s="66"/>
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A210" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B210" s="57"/>
+      <c r="C210" s="57"/>
+      <c r="D210" s="57"/>
+      <c r="E210" s="57"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="57"/>
+      <c r="H210" s="57"/>
+      <c r="I210" s="57"/>
+      <c r="J210" s="57"/>
+      <c r="K210" s="57"/>
+      <c r="L210" s="57"/>
+      <c r="M210" s="57"/>
+      <c r="N210" s="57"/>
+      <c r="O210" s="57"/>
+      <c r="P210" s="57"/>
+      <c r="Q210" s="57"/>
+      <c r="R210" s="57"/>
+      <c r="S210" s="57"/>
+      <c r="T210" s="57"/>
+      <c r="U210" s="57"/>
+      <c r="V210" s="57"/>
+      <c r="W210" s="57"/>
+      <c r="X210" s="57"/>
+      <c r="Y210" s="57"/>
+      <c r="Z210" s="57"/>
+      <c r="AA210" s="57"/>
+      <c r="AB210" s="57"/>
+      <c r="AC210" s="57"/>
+      <c r="AD210" s="57"/>
+      <c r="AE210" s="57"/>
+      <c r="AF210" s="57"/>
+      <c r="AG210" s="57"/>
+      <c r="AH210" s="57"/>
+      <c r="AI210" s="57"/>
+      <c r="AJ210" s="57"/>
     </row>
     <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B212" s="59" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C212" s="59" t="s">
         <v>1715</v>
-      </c>
-      <c r="C212" s="59" t="s">
-        <v>1823</v>
       </c>
       <c r="D212" s="59"/>
       <c r="E212" s="59"/>
-      <c r="F212" s="59"/>
+      <c r="F212" s="59" t="s">
+        <v>79</v>
+      </c>
       <c r="G212" s="59"/>
       <c r="H212" s="59"/>
       <c r="I212" s="59"/>
@@ -16905,7 +16879,9 @@
       <c r="K212" s="59"/>
       <c r="L212" s="59"/>
       <c r="M212" s="59"/>
-      <c r="N212" s="59"/>
+      <c r="N212" s="59" t="s">
+        <v>1753</v>
+      </c>
       <c r="O212" s="59"/>
       <c r="P212" s="59"/>
       <c r="Q212" s="59"/>
@@ -16913,35 +16889,33 @@
       <c r="S212" s="59"/>
       <c r="T212" s="59"/>
       <c r="U212" s="59"/>
-      <c r="V212" s="59"/>
-      <c r="W212" s="59"/>
-      <c r="X212" s="59"/>
-      <c r="Y212" s="59"/>
-      <c r="Z212" s="59"/>
-      <c r="AA212" s="59"/>
-      <c r="AB212" s="59"/>
-      <c r="AC212" s="59"/>
-      <c r="AD212" s="59"/>
-      <c r="AE212" s="59"/>
-      <c r="AF212" s="59"/>
-      <c r="AG212" s="59"/>
-      <c r="AH212" s="59"/>
-      <c r="AI212" s="59"/>
-      <c r="AJ212" s="59"/>
+      <c r="V212" s="66"/>
+      <c r="W212" s="66"/>
+      <c r="X212" s="66"/>
+      <c r="Y212" s="66"/>
+      <c r="Z212" s="66"/>
+      <c r="AA212" s="66"/>
+      <c r="AB212" s="66"/>
+      <c r="AC212" s="66"/>
+      <c r="AD212" s="66"/>
+      <c r="AE212" s="66"/>
+      <c r="AF212" s="66"/>
+      <c r="AG212" s="66"/>
+      <c r="AH212" s="66"/>
+      <c r="AI212" s="66"/>
+      <c r="AJ212" s="66"/>
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" s="59" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B213" s="59" t="s">
-        <v>1570</v>
+        <v>1715</v>
       </c>
       <c r="C213" s="59" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D213" s="59" t="s">
-        <v>2240</v>
-      </c>
+        <v>1823</v>
+      </c>
+      <c r="D213" s="59"/>
       <c r="E213" s="59"/>
       <c r="F213" s="59"/>
       <c r="G213" s="59"/>
@@ -16957,9 +16931,7 @@
       <c r="Q213" s="59"/>
       <c r="R213" s="59"/>
       <c r="S213" s="59"/>
-      <c r="T213" s="59" t="s">
-        <v>92</v>
-      </c>
+      <c r="T213" s="59"/>
       <c r="U213" s="59"/>
       <c r="V213" s="59"/>
       <c r="W213" s="59"/>
@@ -16979,28 +16951,24 @@
     </row>
     <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" s="59" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B214" s="59" t="s">
-        <v>2242</v>
+        <v>1570</v>
       </c>
       <c r="C214" s="59" t="s">
-        <v>2243</v>
-      </c>
-      <c r="D214" s="59"/>
+        <v>1824</v>
+      </c>
+      <c r="D214" s="59" t="s">
+        <v>2240</v>
+      </c>
       <c r="E214" s="59"/>
-      <c r="F214" s="59" t="s">
-        <v>38</v>
-      </c>
+      <c r="F214" s="59"/>
       <c r="G214" s="59"/>
       <c r="H214" s="59"/>
-      <c r="I214" s="59" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I214" s="59"/>
       <c r="J214" s="59"/>
-      <c r="K214" s="59" t="s">
-        <v>2244</v>
-      </c>
+      <c r="K214" s="59"/>
       <c r="L214" s="59"/>
       <c r="M214" s="59"/>
       <c r="N214" s="59"/>
@@ -17010,7 +16978,7 @@
       <c r="R214" s="59"/>
       <c r="S214" s="59"/>
       <c r="T214" s="59" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U214" s="59"/>
       <c r="V214" s="59"/>
@@ -17031,24 +16999,28 @@
     </row>
     <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" s="59" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B215" s="59" t="s">
-        <v>1571</v>
+        <v>2242</v>
       </c>
       <c r="C215" s="59" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D215" s="59" t="s">
-        <v>2241</v>
-      </c>
+        <v>2243</v>
+      </c>
+      <c r="D215" s="59"/>
       <c r="E215" s="59"/>
-      <c r="F215" s="59"/>
+      <c r="F215" s="59" t="s">
+        <v>38</v>
+      </c>
       <c r="G215" s="59"/>
       <c r="H215" s="59"/>
-      <c r="I215" s="59"/>
+      <c r="I215" s="59" t="s">
+        <v>1735</v>
+      </c>
       <c r="J215" s="59"/>
-      <c r="K215" s="59"/>
+      <c r="K215" s="59" t="s">
+        <v>2244</v>
+      </c>
       <c r="L215" s="59"/>
       <c r="M215" s="59"/>
       <c r="N215" s="59"/>
@@ -17058,7 +17030,7 @@
       <c r="R215" s="59"/>
       <c r="S215" s="59"/>
       <c r="T215" s="59" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U215" s="59"/>
       <c r="V215" s="59"/>
@@ -17079,28 +17051,24 @@
     </row>
     <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" s="59" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B216" s="59" t="s">
-        <v>2245</v>
+        <v>1571</v>
       </c>
       <c r="C216" s="59" t="s">
-        <v>2247</v>
-      </c>
-      <c r="D216" s="59"/>
+        <v>1825</v>
+      </c>
+      <c r="D216" s="59" t="s">
+        <v>2241</v>
+      </c>
       <c r="E216" s="59"/>
-      <c r="F216" s="59" t="s">
-        <v>38</v>
-      </c>
+      <c r="F216" s="59"/>
       <c r="G216" s="59"/>
       <c r="H216" s="59"/>
-      <c r="I216" s="59" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I216" s="59"/>
       <c r="J216" s="59"/>
-      <c r="K216" s="59" t="s">
-        <v>2246</v>
-      </c>
+      <c r="K216" s="59"/>
       <c r="L216" s="59"/>
       <c r="M216" s="59"/>
       <c r="N216" s="59"/>
@@ -17110,7 +17078,7 @@
       <c r="R216" s="59"/>
       <c r="S216" s="59"/>
       <c r="T216" s="59" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U216" s="59"/>
       <c r="V216" s="59"/>
@@ -17131,26 +17099,28 @@
     </row>
     <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" s="59" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B217" s="59" t="s">
-        <v>2180</v>
+        <v>2245</v>
       </c>
       <c r="C217" s="59" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D217" s="59" t="s">
-        <v>2014</v>
-      </c>
+        <v>2247</v>
+      </c>
+      <c r="D217" s="59"/>
       <c r="E217" s="59"/>
       <c r="F217" s="59" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G217" s="59"/>
       <c r="H217" s="59"/>
-      <c r="I217" s="59"/>
+      <c r="I217" s="59" t="s">
+        <v>1735</v>
+      </c>
       <c r="J217" s="59"/>
-      <c r="K217" s="59"/>
+      <c r="K217" s="59" t="s">
+        <v>2246</v>
+      </c>
       <c r="L217" s="59"/>
       <c r="M217" s="59"/>
       <c r="N217" s="59"/>
@@ -17159,42 +17129,42 @@
       <c r="Q217" s="59"/>
       <c r="R217" s="59"/>
       <c r="S217" s="59"/>
-      <c r="T217" s="59"/>
+      <c r="T217" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="U217" s="59"/>
-      <c r="V217" s="66"/>
-      <c r="W217" s="66"/>
-      <c r="X217" s="66" t="s">
-        <v>1780</v>
-      </c>
-      <c r="Y217" s="66"/>
-      <c r="Z217" s="66" t="s">
-        <v>2015</v>
-      </c>
-      <c r="AA217" s="66"/>
-      <c r="AB217" s="66"/>
-      <c r="AC217" s="66"/>
-      <c r="AD217" s="66"/>
-      <c r="AE217" s="66"/>
-      <c r="AF217" s="66"/>
-      <c r="AG217" s="66"/>
-      <c r="AH217" s="66"/>
-      <c r="AI217" s="66"/>
-      <c r="AJ217" s="66"/>
+      <c r="V217" s="59"/>
+      <c r="W217" s="59"/>
+      <c r="X217" s="59"/>
+      <c r="Y217" s="59"/>
+      <c r="Z217" s="59"/>
+      <c r="AA217" s="59"/>
+      <c r="AB217" s="59"/>
+      <c r="AC217" s="59"/>
+      <c r="AD217" s="59"/>
+      <c r="AE217" s="59"/>
+      <c r="AF217" s="59"/>
+      <c r="AG217" s="59"/>
+      <c r="AH217" s="59"/>
+      <c r="AI217" s="59"/>
+      <c r="AJ217" s="59"/>
     </row>
     <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" s="59" t="s">
-        <v>1503</v>
+        <v>45</v>
       </c>
       <c r="B218" s="59" t="s">
-        <v>1572</v>
+        <v>2180</v>
       </c>
       <c r="C218" s="59" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D218" s="59"/>
+        <v>1769</v>
+      </c>
+      <c r="D218" s="59" t="s">
+        <v>2014</v>
+      </c>
       <c r="E218" s="59"/>
       <c r="F218" s="59" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G218" s="59"/>
       <c r="H218" s="59"/>
@@ -17209,42 +17179,42 @@
       <c r="Q218" s="59"/>
       <c r="R218" s="59"/>
       <c r="S218" s="59"/>
-      <c r="T218" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="U218" s="59">
-        <v>3</v>
-      </c>
-      <c r="V218" s="59"/>
-      <c r="W218" s="59"/>
-      <c r="X218" s="59"/>
-      <c r="Y218" s="59"/>
-      <c r="Z218" s="59"/>
-      <c r="AA218" s="59"/>
-      <c r="AB218" s="59"/>
-      <c r="AC218" s="59"/>
-      <c r="AD218" s="59"/>
-      <c r="AE218" s="59"/>
-      <c r="AF218" s="59"/>
-      <c r="AG218" s="59"/>
-      <c r="AH218" s="59"/>
-      <c r="AI218" s="59"/>
-      <c r="AJ218" s="59"/>
+      <c r="T218" s="59"/>
+      <c r="U218" s="59"/>
+      <c r="V218" s="66"/>
+      <c r="W218" s="66"/>
+      <c r="X218" s="66" t="s">
+        <v>1780</v>
+      </c>
+      <c r="Y218" s="66"/>
+      <c r="Z218" s="66" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AA218" s="66"/>
+      <c r="AB218" s="66"/>
+      <c r="AC218" s="66"/>
+      <c r="AD218" s="66"/>
+      <c r="AE218" s="66"/>
+      <c r="AF218" s="66"/>
+      <c r="AG218" s="66"/>
+      <c r="AH218" s="66"/>
+      <c r="AI218" s="66"/>
+      <c r="AJ218" s="66"/>
     </row>
     <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" s="59" t="s">
-        <v>1573</v>
+        <v>1503</v>
       </c>
       <c r="B219" s="59" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C219" s="59" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="D219" s="59"/>
       <c r="E219" s="59"/>
       <c r="F219" s="59" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G219" s="59"/>
       <c r="H219" s="59"/>
@@ -17253,9 +17223,7 @@
       <c r="K219" s="59"/>
       <c r="L219" s="59"/>
       <c r="M219" s="59"/>
-      <c r="N219" s="59" t="s">
-        <v>1826</v>
-      </c>
+      <c r="N219" s="59"/>
       <c r="O219" s="59"/>
       <c r="P219" s="59"/>
       <c r="Q219" s="59"/>
@@ -17265,7 +17233,7 @@
         <v>102</v>
       </c>
       <c r="U219" s="59">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="V219" s="59"/>
       <c r="W219" s="59"/>
@@ -17285,17 +17253,19 @@
     </row>
     <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" s="59" t="s">
-        <v>11</v>
+        <v>1573</v>
       </c>
       <c r="B220" s="59" t="s">
-        <v>1846</v>
+        <v>1574</v>
       </c>
       <c r="C220" s="59" t="s">
-        <v>1872</v>
+        <v>1900</v>
       </c>
       <c r="D220" s="59"/>
       <c r="E220" s="59"/>
-      <c r="F220" s="59"/>
+      <c r="F220" s="59" t="s">
+        <v>51</v>
+      </c>
       <c r="G220" s="59"/>
       <c r="H220" s="59"/>
       <c r="I220" s="59"/>
@@ -17304,7 +17274,7 @@
       <c r="L220" s="59"/>
       <c r="M220" s="59"/>
       <c r="N220" s="59" t="s">
-        <v>1847</v>
+        <v>1826</v>
       </c>
       <c r="O220" s="59"/>
       <c r="P220" s="59"/>
@@ -17312,9 +17282,11 @@
       <c r="R220" s="59"/>
       <c r="S220" s="59"/>
       <c r="T220" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="U220" s="59"/>
+        <v>102</v>
+      </c>
+      <c r="U220" s="59">
+        <v>32</v>
+      </c>
       <c r="V220" s="59"/>
       <c r="W220" s="59"/>
       <c r="X220" s="59"/>
@@ -17333,19 +17305,17 @@
     </row>
     <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" s="59" t="s">
-        <v>1503</v>
+        <v>11</v>
       </c>
       <c r="B221" s="59" t="s">
-        <v>1578</v>
+        <v>1846</v>
       </c>
       <c r="C221" s="59" t="s">
-        <v>1827</v>
+        <v>1872</v>
       </c>
       <c r="D221" s="59"/>
       <c r="E221" s="59"/>
-      <c r="F221" s="59" t="s">
-        <v>55</v>
-      </c>
+      <c r="F221" s="59"/>
       <c r="G221" s="59"/>
       <c r="H221" s="59"/>
       <c r="I221" s="59"/>
@@ -17353,18 +17323,18 @@
       <c r="K221" s="59"/>
       <c r="L221" s="59"/>
       <c r="M221" s="59"/>
-      <c r="N221" s="59"/>
+      <c r="N221" s="59" t="s">
+        <v>1847</v>
+      </c>
       <c r="O221" s="59"/>
       <c r="P221" s="59"/>
       <c r="Q221" s="59"/>
       <c r="R221" s="59"/>
       <c r="S221" s="59"/>
       <c r="T221" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="U221" s="59">
-        <v>3</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="U221" s="59"/>
       <c r="V221" s="59"/>
       <c r="W221" s="59"/>
       <c r="X221" s="59"/>
@@ -17383,18 +17353,18 @@
     </row>
     <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" s="59" t="s">
-        <v>1579</v>
+        <v>1503</v>
       </c>
       <c r="B222" s="59" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C222" s="59" t="s">
-        <v>1902</v>
+        <v>1827</v>
       </c>
       <c r="D222" s="59"/>
       <c r="E222" s="59"/>
       <c r="F222" s="59" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G222" s="59"/>
       <c r="H222" s="59"/>
@@ -17403,9 +17373,7 @@
       <c r="K222" s="59"/>
       <c r="L222" s="59"/>
       <c r="M222" s="59"/>
-      <c r="N222" s="59" t="s">
-        <v>1828</v>
-      </c>
+      <c r="N222" s="59"/>
       <c r="O222" s="59"/>
       <c r="P222" s="59"/>
       <c r="Q222" s="59"/>
@@ -17415,7 +17383,7 @@
         <v>102</v>
       </c>
       <c r="U222" s="59">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="V222" s="59"/>
       <c r="W222" s="59"/>
@@ -17435,17 +17403,19 @@
     </row>
     <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" s="59" t="s">
-        <v>11</v>
+        <v>1579</v>
       </c>
       <c r="B223" s="59" t="s">
-        <v>1850</v>
+        <v>1580</v>
       </c>
       <c r="C223" s="59" t="s">
-        <v>1872</v>
+        <v>1902</v>
       </c>
       <c r="D223" s="59"/>
       <c r="E223" s="59"/>
-      <c r="F223" s="59"/>
+      <c r="F223" s="59" t="s">
+        <v>51</v>
+      </c>
       <c r="G223" s="59"/>
       <c r="H223" s="59"/>
       <c r="I223" s="59"/>
@@ -17454,7 +17424,7 @@
       <c r="L223" s="59"/>
       <c r="M223" s="59"/>
       <c r="N223" s="59" t="s">
-        <v>1851</v>
+        <v>1828</v>
       </c>
       <c r="O223" s="59"/>
       <c r="P223" s="59"/>
@@ -17465,7 +17435,7 @@
         <v>102</v>
       </c>
       <c r="U223" s="59">
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="V223" s="59"/>
       <c r="W223" s="59"/>
@@ -17485,13 +17455,13 @@
     </row>
     <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" s="59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B224" s="59" t="s">
-        <v>2091</v>
+        <v>1850</v>
       </c>
       <c r="C224" s="59" t="s">
-        <v>2092</v>
+        <v>1872</v>
       </c>
       <c r="D224" s="59"/>
       <c r="E224" s="59"/>
@@ -17503,16 +17473,20 @@
       <c r="K224" s="59"/>
       <c r="L224" s="59"/>
       <c r="M224" s="59"/>
-      <c r="N224" s="59"/>
+      <c r="N224" s="59" t="s">
+        <v>1851</v>
+      </c>
       <c r="O224" s="59"/>
       <c r="P224" s="59"/>
       <c r="Q224" s="59"/>
       <c r="R224" s="59"/>
       <c r="S224" s="59"/>
       <c r="T224" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="U224" s="59"/>
+        <v>102</v>
+      </c>
+      <c r="U224" s="59">
+        <v>1024</v>
+      </c>
       <c r="V224" s="59"/>
       <c r="W224" s="59"/>
       <c r="X224" s="59"/>
@@ -17531,19 +17505,17 @@
     </row>
     <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" s="59" t="s">
-        <v>1503</v>
+        <v>15</v>
       </c>
       <c r="B225" s="59" t="s">
-        <v>1575</v>
+        <v>2091</v>
       </c>
       <c r="C225" s="59" t="s">
-        <v>1906</v>
+        <v>2092</v>
       </c>
       <c r="D225" s="59"/>
       <c r="E225" s="59"/>
-      <c r="F225" s="59" t="s">
-        <v>55</v>
-      </c>
+      <c r="F225" s="59"/>
       <c r="G225" s="59"/>
       <c r="H225" s="59"/>
       <c r="I225" s="59"/>
@@ -17558,11 +17530,9 @@
       <c r="R225" s="59"/>
       <c r="S225" s="59"/>
       <c r="T225" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="U225" s="59">
-        <v>3</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="U225" s="59"/>
       <c r="V225" s="59"/>
       <c r="W225" s="59"/>
       <c r="X225" s="59"/>
@@ -17581,18 +17551,18 @@
     </row>
     <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" s="59" t="s">
-        <v>1576</v>
+        <v>1503</v>
       </c>
       <c r="B226" s="59" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C226" s="59" t="s">
-        <v>1900</v>
+        <v>1906</v>
       </c>
       <c r="D226" s="59"/>
       <c r="E226" s="59"/>
       <c r="F226" s="59" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G226" s="59"/>
       <c r="H226" s="59"/>
@@ -17601,9 +17571,7 @@
       <c r="K226" s="59"/>
       <c r="L226" s="59"/>
       <c r="M226" s="59"/>
-      <c r="N226" s="59" t="s">
-        <v>1832</v>
-      </c>
+      <c r="N226" s="59"/>
       <c r="O226" s="59"/>
       <c r="P226" s="59"/>
       <c r="Q226" s="59"/>
@@ -17613,7 +17581,7 @@
         <v>102</v>
       </c>
       <c r="U226" s="59">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="V226" s="59"/>
       <c r="W226" s="59"/>
@@ -17633,17 +17601,19 @@
     </row>
     <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" s="59" t="s">
-        <v>11</v>
+        <v>1576</v>
       </c>
       <c r="B227" s="59" t="s">
-        <v>1848</v>
+        <v>1577</v>
       </c>
       <c r="C227" s="59" t="s">
-        <v>1872</v>
+        <v>1900</v>
       </c>
       <c r="D227" s="59"/>
       <c r="E227" s="59"/>
-      <c r="F227" s="59"/>
+      <c r="F227" s="59" t="s">
+        <v>51</v>
+      </c>
       <c r="G227" s="59"/>
       <c r="H227" s="59"/>
       <c r="I227" s="59"/>
@@ -17652,7 +17622,7 @@
       <c r="L227" s="59"/>
       <c r="M227" s="59"/>
       <c r="N227" s="59" t="s">
-        <v>1849</v>
+        <v>1832</v>
       </c>
       <c r="O227" s="59"/>
       <c r="P227" s="59"/>
@@ -17663,7 +17633,7 @@
         <v>102</v>
       </c>
       <c r="U227" s="59">
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="V227" s="59"/>
       <c r="W227" s="59"/>
@@ -17683,19 +17653,17 @@
     </row>
     <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" s="59" t="s">
-        <v>1503</v>
+        <v>11</v>
       </c>
       <c r="B228" s="59" t="s">
-        <v>1829</v>
+        <v>1848</v>
       </c>
       <c r="C228" s="59" t="s">
-        <v>1830</v>
+        <v>1872</v>
       </c>
       <c r="D228" s="59"/>
       <c r="E228" s="59"/>
-      <c r="F228" s="59" t="s">
-        <v>55</v>
-      </c>
+      <c r="F228" s="59"/>
       <c r="G228" s="59"/>
       <c r="H228" s="59"/>
       <c r="I228" s="59"/>
@@ -17703,16 +17671,20 @@
       <c r="K228" s="59"/>
       <c r="L228" s="59"/>
       <c r="M228" s="59"/>
-      <c r="N228" s="59"/>
+      <c r="N228" s="59" t="s">
+        <v>1849</v>
+      </c>
       <c r="O228" s="59"/>
       <c r="P228" s="59"/>
       <c r="Q228" s="59"/>
       <c r="R228" s="59"/>
       <c r="S228" s="59"/>
       <c r="T228" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="U228" s="59"/>
+        <v>102</v>
+      </c>
+      <c r="U228" s="59">
+        <v>1024</v>
+      </c>
       <c r="V228" s="59"/>
       <c r="W228" s="59"/>
       <c r="X228" s="59"/>
@@ -17731,18 +17703,18 @@
     </row>
     <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" s="59" t="s">
-        <v>1581</v>
+        <v>1503</v>
       </c>
       <c r="B229" s="59" t="s">
-        <v>1582</v>
+        <v>1829</v>
       </c>
       <c r="C229" s="59" t="s">
-        <v>2013</v>
+        <v>1830</v>
       </c>
       <c r="D229" s="59"/>
       <c r="E229" s="59"/>
       <c r="F229" s="59" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G229" s="59"/>
       <c r="H229" s="59"/>
@@ -17751,20 +17723,16 @@
       <c r="K229" s="59"/>
       <c r="L229" s="59"/>
       <c r="M229" s="59"/>
-      <c r="N229" s="59" t="s">
-        <v>1831</v>
-      </c>
+      <c r="N229" s="59"/>
       <c r="O229" s="59"/>
       <c r="P229" s="59"/>
       <c r="Q229" s="59"/>
       <c r="R229" s="59"/>
       <c r="S229" s="59"/>
       <c r="T229" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="U229" s="59">
-        <v>32</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="U229" s="59"/>
       <c r="V229" s="59"/>
       <c r="W229" s="59"/>
       <c r="X229" s="59"/>
@@ -17783,17 +17751,19 @@
     </row>
     <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" s="59" t="s">
-        <v>11</v>
+        <v>1581</v>
       </c>
       <c r="B230" s="59" t="s">
-        <v>1852</v>
+        <v>1582</v>
       </c>
       <c r="C230" s="59" t="s">
-        <v>1872</v>
+        <v>2013</v>
       </c>
       <c r="D230" s="59"/>
       <c r="E230" s="59"/>
-      <c r="F230" s="59"/>
+      <c r="F230" s="59" t="s">
+        <v>51</v>
+      </c>
       <c r="G230" s="59"/>
       <c r="H230" s="59"/>
       <c r="I230" s="59"/>
@@ -17802,7 +17772,7 @@
       <c r="L230" s="59"/>
       <c r="M230" s="59"/>
       <c r="N230" s="59" t="s">
-        <v>1853</v>
+        <v>1831</v>
       </c>
       <c r="O230" s="59"/>
       <c r="P230" s="59"/>
@@ -17813,7 +17783,7 @@
         <v>102</v>
       </c>
       <c r="U230" s="59">
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="V230" s="59"/>
       <c r="W230" s="59"/>
@@ -17833,10 +17803,14 @@
     </row>
     <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B231" s="59"/>
-      <c r="C231" s="59"/>
+        <v>11</v>
+      </c>
+      <c r="B231" s="59" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C231" s="59" t="s">
+        <v>1872</v>
+      </c>
       <c r="D231" s="59"/>
       <c r="E231" s="59"/>
       <c r="F231" s="59"/>
@@ -17847,14 +17821,20 @@
       <c r="K231" s="59"/>
       <c r="L231" s="59"/>
       <c r="M231" s="59"/>
-      <c r="N231" s="59"/>
+      <c r="N231" s="59" t="s">
+        <v>1853</v>
+      </c>
       <c r="O231" s="59"/>
       <c r="P231" s="59"/>
       <c r="Q231" s="59"/>
       <c r="R231" s="59"/>
       <c r="S231" s="59"/>
-      <c r="T231" s="59"/>
-      <c r="U231" s="59"/>
+      <c r="T231" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="U231" s="59">
+        <v>1024</v>
+      </c>
       <c r="V231" s="59"/>
       <c r="W231" s="59"/>
       <c r="X231" s="59"/>
@@ -17895,98 +17875,94 @@
       <c r="S232" s="59"/>
       <c r="T232" s="59"/>
       <c r="U232" s="59"/>
-      <c r="V232" s="66"/>
-      <c r="W232" s="66"/>
-      <c r="X232" s="66"/>
-      <c r="Y232" s="66"/>
-      <c r="Z232" s="66"/>
-      <c r="AA232" s="66"/>
-      <c r="AB232" s="66"/>
-      <c r="AC232" s="66"/>
-      <c r="AD232" s="66"/>
-      <c r="AE232" s="66"/>
-      <c r="AF232" s="66"/>
-      <c r="AG232" s="66"/>
-      <c r="AH232" s="66"/>
-      <c r="AI232" s="66"/>
-      <c r="AJ232" s="66"/>
-    </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A234" s="67" t="s">
+      <c r="V232" s="59"/>
+      <c r="W232" s="59"/>
+      <c r="X232" s="59"/>
+      <c r="Y232" s="59"/>
+      <c r="Z232" s="59"/>
+      <c r="AA232" s="59"/>
+      <c r="AB232" s="59"/>
+      <c r="AC232" s="59"/>
+      <c r="AD232" s="59"/>
+      <c r="AE232" s="59"/>
+      <c r="AF232" s="59"/>
+      <c r="AG232" s="59"/>
+      <c r="AH232" s="59"/>
+      <c r="AI232" s="59"/>
+      <c r="AJ232" s="59"/>
+    </row>
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A233" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B233" s="59"/>
+      <c r="C233" s="59"/>
+      <c r="D233" s="59"/>
+      <c r="E233" s="59"/>
+      <c r="F233" s="59"/>
+      <c r="G233" s="59"/>
+      <c r="H233" s="59"/>
+      <c r="I233" s="59"/>
+      <c r="J233" s="59"/>
+      <c r="K233" s="59"/>
+      <c r="L233" s="59"/>
+      <c r="M233" s="59"/>
+      <c r="N233" s="59"/>
+      <c r="O233" s="59"/>
+      <c r="P233" s="59"/>
+      <c r="Q233" s="59"/>
+      <c r="R233" s="59"/>
+      <c r="S233" s="59"/>
+      <c r="T233" s="59"/>
+      <c r="U233" s="59"/>
+      <c r="V233" s="66"/>
+      <c r="W233" s="66"/>
+      <c r="X233" s="66"/>
+      <c r="Y233" s="66"/>
+      <c r="Z233" s="66"/>
+      <c r="AA233" s="66"/>
+      <c r="AB233" s="66"/>
+      <c r="AC233" s="66"/>
+      <c r="AD233" s="66"/>
+      <c r="AE233" s="66"/>
+      <c r="AF233" s="66"/>
+      <c r="AG233" s="66"/>
+      <c r="AH233" s="66"/>
+      <c r="AI233" s="66"/>
+      <c r="AJ233" s="66"/>
+    </row>
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A235" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B234" s="67" t="s">
+      <c r="B235" s="67" t="s">
         <v>1775</v>
-      </c>
-      <c r="C234" s="67" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D234" s="67"/>
-      <c r="E234" s="67"/>
-      <c r="F234" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G234" s="67"/>
-      <c r="H234" s="67"/>
-      <c r="I234" s="67"/>
-      <c r="J234" s="67"/>
-      <c r="K234" s="67"/>
-      <c r="L234" s="67"/>
-      <c r="M234" s="67"/>
-      <c r="N234" s="67" t="s">
-        <v>1755</v>
-      </c>
-      <c r="O234" s="67"/>
-      <c r="P234" s="67"/>
-      <c r="Q234" s="67"/>
-      <c r="R234" s="67"/>
-      <c r="S234" s="67"/>
-      <c r="T234" s="67"/>
-      <c r="U234" s="67"/>
-      <c r="V234" s="68"/>
-      <c r="W234" s="68"/>
-      <c r="X234" s="68"/>
-      <c r="Y234" s="68"/>
-      <c r="Z234" s="68"/>
-      <c r="AA234" s="68"/>
-      <c r="AB234" s="68"/>
-      <c r="AC234" s="68"/>
-      <c r="AD234" s="68"/>
-      <c r="AE234" s="68"/>
-      <c r="AF234" s="68"/>
-      <c r="AG234" s="68"/>
-      <c r="AH234" s="68"/>
-      <c r="AI234" s="68"/>
-      <c r="AJ234" s="68"/>
-    </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A235" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B235" s="68" t="s">
-        <v>1615</v>
       </c>
       <c r="C235" s="67" t="s">
         <v>1754</v>
       </c>
-      <c r="D235" s="68"/>
-      <c r="E235" s="68"/>
-      <c r="F235" s="68"/>
-      <c r="G235" s="68"/>
-      <c r="H235" s="68"/>
-      <c r="I235" s="68"/>
-      <c r="J235" s="68"/>
-      <c r="K235" s="68"/>
-      <c r="L235" s="68"/>
-      <c r="M235" s="68"/>
-      <c r="N235" s="68"/>
-      <c r="O235" s="68"/>
-      <c r="P235" s="68"/>
-      <c r="Q235" s="68"/>
-      <c r="R235" s="68"/>
-      <c r="S235" s="68"/>
-      <c r="T235" s="68"/>
-      <c r="U235" s="68"/>
+      <c r="D235" s="67"/>
+      <c r="E235" s="67"/>
+      <c r="F235" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="G235" s="67"/>
+      <c r="H235" s="67"/>
+      <c r="I235" s="67"/>
+      <c r="J235" s="67"/>
+      <c r="K235" s="67"/>
+      <c r="L235" s="67"/>
+      <c r="M235" s="67"/>
+      <c r="N235" s="67" t="s">
+        <v>1755</v>
+      </c>
+      <c r="O235" s="67"/>
+      <c r="P235" s="67"/>
+      <c r="Q235" s="67"/>
+      <c r="R235" s="67"/>
+      <c r="S235" s="67"/>
+      <c r="T235" s="67"/>
+      <c r="U235" s="67"/>
       <c r="V235" s="68"/>
       <c r="W235" s="68"/>
       <c r="X235" s="68"/>
@@ -18005,17 +17981,15 @@
     </row>
     <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" s="68" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B236" s="68" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C236" s="68" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D236" s="68" t="s">
-        <v>2250</v>
-      </c>
+        <v>1615</v>
+      </c>
+      <c r="C236" s="67" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D236" s="68"/>
       <c r="E236" s="68"/>
       <c r="F236" s="68"/>
       <c r="G236" s="68"/>
@@ -18031,9 +18005,7 @@
       <c r="Q236" s="68"/>
       <c r="R236" s="68"/>
       <c r="S236" s="68"/>
-      <c r="T236" s="68" t="s">
-        <v>92</v>
-      </c>
+      <c r="T236" s="68"/>
       <c r="U236" s="68"/>
       <c r="V236" s="68"/>
       <c r="W236" s="68"/>
@@ -18053,28 +18025,24 @@
     </row>
     <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" s="68" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B237" s="68" t="s">
-        <v>2248</v>
+        <v>1595</v>
       </c>
       <c r="C237" s="68" t="s">
-        <v>2133</v>
-      </c>
-      <c r="D237" s="68"/>
+        <v>1890</v>
+      </c>
+      <c r="D237" s="68" t="s">
+        <v>2250</v>
+      </c>
       <c r="E237" s="68"/>
-      <c r="F237" s="68" t="s">
-        <v>38</v>
-      </c>
+      <c r="F237" s="68"/>
       <c r="G237" s="68"/>
       <c r="H237" s="68"/>
-      <c r="I237" s="68" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I237" s="68"/>
       <c r="J237" s="68"/>
-      <c r="K237" s="68" t="s">
-        <v>2249</v>
-      </c>
+      <c r="K237" s="68"/>
       <c r="L237" s="68"/>
       <c r="M237" s="68"/>
       <c r="N237" s="68"/>
@@ -18084,7 +18052,7 @@
       <c r="R237" s="68"/>
       <c r="S237" s="68"/>
       <c r="T237" s="68" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U237" s="68"/>
       <c r="V237" s="68"/>
@@ -18105,24 +18073,28 @@
     </row>
     <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" s="68" t="s">
-        <v>1606</v>
+        <v>11</v>
       </c>
       <c r="B238" s="68" t="s">
-        <v>1607</v>
+        <v>2248</v>
       </c>
       <c r="C238" s="68" t="s">
-        <v>1608</v>
+        <v>2133</v>
       </c>
       <c r="D238" s="68"/>
       <c r="E238" s="68"/>
       <c r="F238" s="68" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G238" s="68"/>
       <c r="H238" s="68"/>
-      <c r="I238" s="68"/>
+      <c r="I238" s="68" t="s">
+        <v>1735</v>
+      </c>
       <c r="J238" s="68"/>
-      <c r="K238" s="68"/>
+      <c r="K238" s="68" t="s">
+        <v>2249</v>
+      </c>
       <c r="L238" s="68"/>
       <c r="M238" s="68"/>
       <c r="N238" s="68"/>
@@ -18132,11 +18104,9 @@
       <c r="R238" s="68"/>
       <c r="S238" s="68"/>
       <c r="T238" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="U238" s="68">
-        <v>32</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="U238" s="68"/>
       <c r="V238" s="68"/>
       <c r="W238" s="68"/>
       <c r="X238" s="68"/>
@@ -18155,13 +18125,13 @@
     </row>
     <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" s="68" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="B239" s="68" t="s">
-        <v>1547</v>
+        <v>1607</v>
       </c>
       <c r="C239" s="68" t="s">
-        <v>1887</v>
+        <v>1608</v>
       </c>
       <c r="D239" s="68"/>
       <c r="E239" s="68"/>
@@ -18205,17 +18175,19 @@
     </row>
     <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" s="68" t="s">
-        <v>11</v>
+        <v>1616</v>
       </c>
       <c r="B240" s="68" t="s">
-        <v>2165</v>
+        <v>1547</v>
       </c>
       <c r="C240" s="68" t="s">
-        <v>1872</v>
+        <v>1887</v>
       </c>
       <c r="D240" s="68"/>
       <c r="E240" s="68"/>
-      <c r="F240" s="68"/>
+      <c r="F240" s="68" t="s">
+        <v>51</v>
+      </c>
       <c r="G240" s="68"/>
       <c r="H240" s="68"/>
       <c r="I240" s="68"/>
@@ -18223,18 +18195,18 @@
       <c r="K240" s="68"/>
       <c r="L240" s="68"/>
       <c r="M240" s="68"/>
-      <c r="N240" s="68" t="s">
-        <v>2166</v>
-      </c>
+      <c r="N240" s="68"/>
       <c r="O240" s="68"/>
       <c r="P240" s="68"/>
       <c r="Q240" s="68"/>
       <c r="R240" s="68"/>
       <c r="S240" s="68"/>
       <c r="T240" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="U240" s="68"/>
+        <v>102</v>
+      </c>
+      <c r="U240" s="68">
+        <v>32</v>
+      </c>
       <c r="V240" s="68"/>
       <c r="W240" s="68"/>
       <c r="X240" s="68"/>
@@ -18256,14 +18228,12 @@
         <v>11</v>
       </c>
       <c r="B241" s="68" t="s">
-        <v>2099</v>
+        <v>2165</v>
       </c>
       <c r="C241" s="68" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D241" s="68" t="s">
-        <v>2100</v>
-      </c>
+        <v>1872</v>
+      </c>
+      <c r="D241" s="68"/>
       <c r="E241" s="68"/>
       <c r="F241" s="68"/>
       <c r="G241" s="68"/>
@@ -18271,13 +18241,11 @@
       <c r="I241" s="68"/>
       <c r="J241" s="68"/>
       <c r="K241" s="68"/>
-      <c r="L241" s="68" t="s">
-        <v>2101</v>
-      </c>
-      <c r="M241" s="68" t="s">
-        <v>2102</v>
-      </c>
-      <c r="N241" s="68"/>
+      <c r="L241" s="68"/>
+      <c r="M241" s="68"/>
+      <c r="N241" s="68" t="s">
+        <v>2166</v>
+      </c>
       <c r="O241" s="68"/>
       <c r="P241" s="68"/>
       <c r="Q241" s="68"/>
@@ -18305,28 +18273,30 @@
     </row>
     <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" s="68" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B242" s="68" t="s">
-        <v>1596</v>
+        <v>2099</v>
       </c>
       <c r="C242" s="68" t="s">
         <v>1907</v>
       </c>
-      <c r="D242" s="68"/>
+      <c r="D242" s="68" t="s">
+        <v>2100</v>
+      </c>
       <c r="E242" s="68"/>
-      <c r="F242" s="68" t="s">
-        <v>38</v>
-      </c>
+      <c r="F242" s="68"/>
       <c r="G242" s="68"/>
       <c r="H242" s="68"/>
       <c r="I242" s="68"/>
       <c r="J242" s="68"/>
-      <c r="K242" s="68" t="s">
-        <v>2103</v>
-      </c>
-      <c r="L242" s="68"/>
-      <c r="M242" s="68"/>
+      <c r="K242" s="68"/>
+      <c r="L242" s="68" t="s">
+        <v>2101</v>
+      </c>
+      <c r="M242" s="68" t="s">
+        <v>2102</v>
+      </c>
       <c r="N242" s="68"/>
       <c r="O242" s="68"/>
       <c r="P242" s="68"/>
@@ -18334,7 +18304,7 @@
       <c r="R242" s="68"/>
       <c r="S242" s="68"/>
       <c r="T242" s="68" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="U242" s="68"/>
       <c r="V242" s="68"/>
@@ -18343,7 +18313,7 @@
       <c r="Y242" s="68"/>
       <c r="Z242" s="68"/>
       <c r="AA242" s="68"/>
-      <c r="AB242" s="72"/>
+      <c r="AB242" s="68"/>
       <c r="AC242" s="68"/>
       <c r="AD242" s="68"/>
       <c r="AE242" s="68"/>
@@ -18355,47 +18325,45 @@
     </row>
     <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" s="68" t="s">
-        <v>1618</v>
+        <v>6</v>
       </c>
       <c r="B243" s="68" t="s">
-        <v>1619</v>
+        <v>1596</v>
       </c>
       <c r="C243" s="68" t="s">
-        <v>2189</v>
+        <v>1907</v>
       </c>
       <c r="D243" s="68"/>
       <c r="E243" s="68"/>
       <c r="F243" s="68" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G243" s="68"/>
       <c r="H243" s="68"/>
       <c r="I243" s="68"/>
       <c r="J243" s="68"/>
-      <c r="K243" s="68"/>
+      <c r="K243" s="68" t="s">
+        <v>2103</v>
+      </c>
       <c r="L243" s="68"/>
       <c r="M243" s="68"/>
-      <c r="N243" s="68" t="s">
-        <v>2283</v>
-      </c>
+      <c r="N243" s="68"/>
       <c r="O243" s="68"/>
       <c r="P243" s="68"/>
       <c r="Q243" s="68"/>
       <c r="R243" s="68"/>
       <c r="S243" s="68"/>
       <c r="T243" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="U243" s="68">
-        <v>32</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="U243" s="68"/>
       <c r="V243" s="68"/>
       <c r="W243" s="68"/>
       <c r="X243" s="68"/>
       <c r="Y243" s="68"/>
       <c r="Z243" s="68"/>
       <c r="AA243" s="68"/>
-      <c r="AB243" s="68"/>
+      <c r="AB243" s="72"/>
       <c r="AC243" s="68"/>
       <c r="AD243" s="68"/>
       <c r="AE243" s="68"/>
@@ -18407,30 +18375,26 @@
     </row>
     <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" s="68" t="s">
-        <v>11</v>
+        <v>1618</v>
       </c>
       <c r="B244" s="68" t="s">
-        <v>2105</v>
+        <v>1619</v>
       </c>
       <c r="C244" s="68" t="s">
-        <v>1986</v>
-      </c>
-      <c r="D244" s="68" t="s">
-        <v>2106</v>
-      </c>
+        <v>2189</v>
+      </c>
+      <c r="D244" s="68"/>
       <c r="E244" s="68"/>
-      <c r="F244" s="68"/>
+      <c r="F244" s="68" t="s">
+        <v>55</v>
+      </c>
       <c r="G244" s="68"/>
       <c r="H244" s="68"/>
       <c r="I244" s="68"/>
       <c r="J244" s="68"/>
       <c r="K244" s="68"/>
-      <c r="L244" s="68" t="s">
-        <v>2101</v>
-      </c>
-      <c r="M244" s="68" t="s">
-        <v>2102</v>
-      </c>
+      <c r="L244" s="68"/>
+      <c r="M244" s="68"/>
       <c r="N244" s="68" t="s">
         <v>2283</v>
       </c>
@@ -18440,9 +18404,11 @@
       <c r="R244" s="68"/>
       <c r="S244" s="68"/>
       <c r="T244" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="U244" s="68"/>
+        <v>102</v>
+      </c>
+      <c r="U244" s="68">
+        <v>32</v>
+      </c>
       <c r="V244" s="68"/>
       <c r="W244" s="68"/>
       <c r="X244" s="68"/>
@@ -18461,28 +18427,30 @@
     </row>
     <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" s="68" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B245" s="68" t="s">
-        <v>1834</v>
+        <v>2105</v>
       </c>
       <c r="C245" s="68" t="s">
         <v>1986</v>
       </c>
-      <c r="D245" s="68"/>
+      <c r="D245" s="68" t="s">
+        <v>2106</v>
+      </c>
       <c r="E245" s="68"/>
-      <c r="F245" s="68" t="s">
-        <v>38</v>
-      </c>
+      <c r="F245" s="68"/>
       <c r="G245" s="68"/>
       <c r="H245" s="68"/>
       <c r="I245" s="68"/>
       <c r="J245" s="68"/>
-      <c r="K245" s="68" t="s">
-        <v>2104</v>
-      </c>
-      <c r="L245" s="68"/>
-      <c r="M245" s="68"/>
+      <c r="K245" s="68"/>
+      <c r="L245" s="68" t="s">
+        <v>2101</v>
+      </c>
+      <c r="M245" s="68" t="s">
+        <v>2102</v>
+      </c>
       <c r="N245" s="68" t="s">
         <v>2283</v>
       </c>
@@ -18513,27 +18481,31 @@
     </row>
     <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" s="68" t="s">
-        <v>1617</v>
+        <v>6</v>
       </c>
       <c r="B246" s="68" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="C246" s="68" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D246" s="68"/>
       <c r="E246" s="68"/>
       <c r="F246" s="68" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G246" s="68"/>
       <c r="H246" s="68"/>
       <c r="I246" s="68"/>
       <c r="J246" s="68"/>
-      <c r="K246" s="68"/>
+      <c r="K246" s="68" t="s">
+        <v>2104</v>
+      </c>
       <c r="L246" s="68"/>
       <c r="M246" s="68"/>
-      <c r="N246" s="68"/>
+      <c r="N246" s="68" t="s">
+        <v>2283</v>
+      </c>
       <c r="O246" s="68"/>
       <c r="P246" s="68"/>
       <c r="Q246" s="68"/>
@@ -18561,24 +18533,24 @@
     </row>
     <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" s="68" t="s">
-        <v>38</v>
+        <v>1617</v>
       </c>
       <c r="B247" s="68" t="s">
-        <v>1598</v>
+        <v>1833</v>
       </c>
       <c r="C247" s="68" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D247" s="68"/>
       <c r="E247" s="68"/>
-      <c r="F247" s="68"/>
+      <c r="F247" s="68" t="s">
+        <v>55</v>
+      </c>
       <c r="G247" s="68"/>
       <c r="H247" s="68"/>
       <c r="I247" s="68"/>
       <c r="J247" s="68"/>
-      <c r="K247" s="68" t="s">
-        <v>1994</v>
-      </c>
+      <c r="K247" s="68"/>
       <c r="L247" s="68"/>
       <c r="M247" s="68"/>
       <c r="N247" s="68"/>
@@ -18588,7 +18560,7 @@
       <c r="R247" s="68"/>
       <c r="S247" s="68"/>
       <c r="T247" s="68" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="U247" s="68"/>
       <c r="V247" s="68"/>
@@ -18609,38 +18581,34 @@
     </row>
     <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" s="68" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B248" s="68" t="s">
-        <v>1990</v>
+        <v>1598</v>
       </c>
       <c r="C248" s="68" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="D248" s="68"/>
       <c r="E248" s="68"/>
       <c r="F248" s="68"/>
       <c r="G248" s="68"/>
       <c r="H248" s="68"/>
-      <c r="I248" s="68" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I248" s="68"/>
       <c r="J248" s="68"/>
       <c r="K248" s="68" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="L248" s="68"/>
       <c r="M248" s="68"/>
-      <c r="N248" s="68" t="s">
-        <v>1989</v>
-      </c>
+      <c r="N248" s="68"/>
       <c r="O248" s="68"/>
       <c r="P248" s="68"/>
       <c r="Q248" s="68"/>
       <c r="R248" s="68"/>
       <c r="S248" s="68"/>
       <c r="T248" s="68" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="U248" s="68"/>
       <c r="V248" s="68"/>
@@ -18664,10 +18632,10 @@
         <v>6</v>
       </c>
       <c r="B249" s="68" t="s">
-        <v>1813</v>
+        <v>1990</v>
       </c>
       <c r="C249" s="68" t="s">
-        <v>1980</v>
+        <v>1991</v>
       </c>
       <c r="D249" s="68"/>
       <c r="E249" s="68"/>
@@ -18679,12 +18647,12 @@
       </c>
       <c r="J249" s="68"/>
       <c r="K249" s="68" t="s">
-        <v>1929</v>
+        <v>1992</v>
       </c>
       <c r="L249" s="68"/>
       <c r="M249" s="68"/>
       <c r="N249" s="68" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="O249" s="68"/>
       <c r="P249" s="68"/>
@@ -18711,30 +18679,32 @@
       <c r="AI249" s="68"/>
       <c r="AJ249" s="68"/>
     </row>
-    <row r="250" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" s="68" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B250" s="68" t="s">
-        <v>1776</v>
+        <v>1813</v>
       </c>
       <c r="C250" s="68" t="s">
-        <v>1742</v>
+        <v>1980</v>
       </c>
       <c r="D250" s="68"/>
       <c r="E250" s="68"/>
       <c r="F250" s="68"/>
       <c r="G250" s="68"/>
       <c r="H250" s="68"/>
-      <c r="I250" s="68"/>
+      <c r="I250" s="68" t="s">
+        <v>1735</v>
+      </c>
       <c r="J250" s="68"/>
       <c r="K250" s="68" t="s">
-        <v>1985</v>
+        <v>1929</v>
       </c>
       <c r="L250" s="68"/>
       <c r="M250" s="68"/>
       <c r="N250" s="68" t="s">
-        <v>2283</v>
+        <v>1993</v>
       </c>
       <c r="O250" s="68"/>
       <c r="P250" s="68"/>
@@ -18761,15 +18731,15 @@
       <c r="AI250" s="68"/>
       <c r="AJ250" s="68"/>
     </row>
-    <row r="251" spans="1:36" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="68" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B251" s="68" t="s">
-        <v>1814</v>
+        <v>1776</v>
       </c>
       <c r="C251" s="68" t="s">
-        <v>1815</v>
+        <v>1742</v>
       </c>
       <c r="D251" s="68"/>
       <c r="E251" s="68"/>
@@ -18778,11 +18748,13 @@
       <c r="H251" s="68"/>
       <c r="I251" s="68"/>
       <c r="J251" s="68"/>
-      <c r="K251" s="68"/>
+      <c r="K251" s="68" t="s">
+        <v>1985</v>
+      </c>
       <c r="L251" s="68"/>
       <c r="M251" s="68"/>
       <c r="N251" s="68" t="s">
-        <v>2297</v>
+        <v>2283</v>
       </c>
       <c r="O251" s="68"/>
       <c r="P251" s="68"/>
@@ -18809,15 +18781,15 @@
       <c r="AI251" s="68"/>
       <c r="AJ251" s="68"/>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="68" t="s">
         <v>15</v>
       </c>
       <c r="B252" s="68" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="C252" s="68" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="D252" s="68"/>
       <c r="E252" s="68"/>
@@ -18830,7 +18802,7 @@
       <c r="L252" s="68"/>
       <c r="M252" s="68"/>
       <c r="N252" s="68" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="O252" s="68"/>
       <c r="P252" s="68"/>
@@ -18859,19 +18831,17 @@
     </row>
     <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" s="68" t="s">
-        <v>1503</v>
+        <v>15</v>
       </c>
       <c r="B253" s="68" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="C253" s="68" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D253" s="68"/>
       <c r="E253" s="68"/>
-      <c r="F253" s="68" t="s">
-        <v>55</v>
-      </c>
+      <c r="F253" s="68"/>
       <c r="G253" s="68"/>
       <c r="H253" s="68"/>
       <c r="I253" s="68"/>
@@ -18880,7 +18850,7 @@
       <c r="L253" s="68"/>
       <c r="M253" s="68"/>
       <c r="N253" s="68" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="O253" s="68"/>
       <c r="P253" s="68"/>
@@ -18907,19 +18877,21 @@
       <c r="AI253" s="68"/>
       <c r="AJ253" s="68"/>
     </row>
-    <row r="254" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" s="68" t="s">
-        <v>15</v>
+        <v>1503</v>
       </c>
       <c r="B254" s="68" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="C254" s="68" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="D254" s="68"/>
       <c r="E254" s="68"/>
-      <c r="F254" s="68"/>
+      <c r="F254" s="68" t="s">
+        <v>55</v>
+      </c>
       <c r="G254" s="68"/>
       <c r="H254" s="68"/>
       <c r="I254" s="68"/>
@@ -18928,7 +18900,7 @@
       <c r="L254" s="68"/>
       <c r="M254" s="68"/>
       <c r="N254" s="68" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="O254" s="68"/>
       <c r="P254" s="68"/>
@@ -18955,34 +18927,28 @@
       <c r="AI254" s="68"/>
       <c r="AJ254" s="68"/>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="68" t="s">
-        <v>1503</v>
+        <v>15</v>
       </c>
       <c r="B255" s="68" t="s">
-        <v>1620</v>
+        <v>1820</v>
       </c>
       <c r="C255" s="68" t="s">
-        <v>1777</v>
+        <v>1821</v>
       </c>
       <c r="D255" s="68"/>
       <c r="E255" s="68"/>
-      <c r="F255" s="68" t="s">
-        <v>55</v>
-      </c>
+      <c r="F255" s="68"/>
       <c r="G255" s="68"/>
       <c r="H255" s="68"/>
-      <c r="I255" s="68" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I255" s="68"/>
       <c r="J255" s="68"/>
-      <c r="K255" s="68" t="s">
-        <v>1822</v>
-      </c>
+      <c r="K255" s="68"/>
       <c r="L255" s="68"/>
       <c r="M255" s="68"/>
       <c r="N255" s="68" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="O255" s="68"/>
       <c r="P255" s="68"/>
@@ -18990,11 +18956,9 @@
       <c r="R255" s="68"/>
       <c r="S255" s="68"/>
       <c r="T255" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="U255" s="68">
-        <v>3</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="U255" s="68"/>
       <c r="V255" s="68"/>
       <c r="W255" s="68"/>
       <c r="X255" s="68"/>
@@ -19013,28 +18977,44 @@
     </row>
     <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B256" s="68"/>
-      <c r="C256" s="68"/>
+        <v>1503</v>
+      </c>
+      <c r="B256" s="68" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C256" s="68" t="s">
+        <v>1777</v>
+      </c>
       <c r="D256" s="68"/>
       <c r="E256" s="68"/>
-      <c r="F256" s="68"/>
+      <c r="F256" s="68" t="s">
+        <v>55</v>
+      </c>
       <c r="G256" s="68"/>
       <c r="H256" s="68"/>
-      <c r="I256" s="68"/>
+      <c r="I256" s="68" t="s">
+        <v>1735</v>
+      </c>
       <c r="J256" s="68"/>
-      <c r="K256" s="68"/>
+      <c r="K256" s="68" t="s">
+        <v>1822</v>
+      </c>
       <c r="L256" s="68"/>
       <c r="M256" s="68"/>
-      <c r="N256" s="68"/>
+      <c r="N256" s="68" t="s">
+        <v>2301</v>
+      </c>
       <c r="O256" s="68"/>
       <c r="P256" s="68"/>
       <c r="Q256" s="68"/>
       <c r="R256" s="68"/>
       <c r="S256" s="68"/>
-      <c r="T256" s="68"/>
-      <c r="U256" s="68"/>
+      <c r="T256" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="U256" s="68">
+        <v>3</v>
+      </c>
       <c r="V256" s="68"/>
       <c r="W256" s="68"/>
       <c r="X256" s="68"/>
@@ -19052,146 +19032,140 @@
       <c r="AJ256" s="68"/>
     </row>
     <row r="257" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A257" s="69" t="s">
+      <c r="A257" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B257" s="68"/>
+      <c r="C257" s="68"/>
+      <c r="D257" s="68"/>
+      <c r="E257" s="68"/>
+      <c r="F257" s="68"/>
+      <c r="G257" s="68"/>
+      <c r="H257" s="68"/>
+      <c r="I257" s="68"/>
+      <c r="J257" s="68"/>
+      <c r="K257" s="68"/>
+      <c r="L257" s="68"/>
+      <c r="M257" s="68"/>
+      <c r="N257" s="68"/>
+      <c r="O257" s="68"/>
+      <c r="P257" s="68"/>
+      <c r="Q257" s="68"/>
+      <c r="R257" s="68"/>
+      <c r="S257" s="68"/>
+      <c r="T257" s="68"/>
+      <c r="U257" s="68"/>
+      <c r="V257" s="68"/>
+      <c r="W257" s="68"/>
+      <c r="X257" s="68"/>
+      <c r="Y257" s="68"/>
+      <c r="Z257" s="68"/>
+      <c r="AA257" s="68"/>
+      <c r="AB257" s="68"/>
+      <c r="AC257" s="68"/>
+      <c r="AD257" s="68"/>
+      <c r="AE257" s="68"/>
+      <c r="AF257" s="68"/>
+      <c r="AG257" s="68"/>
+      <c r="AH257" s="68"/>
+      <c r="AI257" s="68"/>
+      <c r="AJ257" s="68"/>
+    </row>
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A258" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B257" s="69"/>
-      <c r="C257" s="69" t="s">
+      <c r="B258" s="69"/>
+      <c r="C258" s="69" t="s">
         <v>1754</v>
       </c>
-      <c r="D257" s="69"/>
-      <c r="E257" s="69"/>
-      <c r="F257" s="69"/>
-      <c r="G257" s="69"/>
-      <c r="H257" s="69"/>
-      <c r="I257" s="69"/>
-      <c r="J257" s="69"/>
-      <c r="K257" s="69"/>
-      <c r="L257" s="69"/>
-      <c r="M257" s="69"/>
-      <c r="N257" s="69"/>
-      <c r="O257" s="69"/>
-      <c r="P257" s="69"/>
-      <c r="Q257" s="69"/>
-      <c r="R257" s="69"/>
-      <c r="S257" s="69"/>
-      <c r="T257" s="69"/>
-      <c r="U257" s="69"/>
-      <c r="V257" s="69"/>
-      <c r="W257" s="69"/>
-      <c r="X257" s="69"/>
-      <c r="Y257" s="69"/>
-      <c r="Z257" s="69"/>
-      <c r="AA257" s="69"/>
-      <c r="AB257" s="69"/>
-      <c r="AC257" s="69"/>
-      <c r="AD257" s="69"/>
-      <c r="AE257" s="69"/>
-      <c r="AF257" s="69"/>
-      <c r="AG257" s="69"/>
-      <c r="AH257" s="69"/>
-      <c r="AI257" s="69"/>
-      <c r="AJ257" s="69"/>
-    </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A258" s="51"/>
-      <c r="B258" s="51"/>
-      <c r="C258" s="51"/>
-      <c r="D258" s="51"/>
-      <c r="E258" s="51"/>
-      <c r="F258" s="51"/>
-      <c r="G258" s="51"/>
-      <c r="H258" s="51"/>
-      <c r="I258" s="51"/>
-      <c r="J258" s="51"/>
-      <c r="K258" s="51"/>
-      <c r="L258" s="51"/>
-      <c r="M258" s="51"/>
-      <c r="N258" s="51"/>
-      <c r="O258" s="51"/>
-      <c r="P258" s="51"/>
-      <c r="Q258" s="51"/>
-      <c r="R258" s="51"/>
-      <c r="S258" s="51"/>
-      <c r="T258" s="51"/>
-      <c r="U258" s="51"/>
-      <c r="V258" s="51"/>
-      <c r="W258" s="51"/>
-      <c r="X258" s="51"/>
-      <c r="Y258" s="51"/>
-      <c r="Z258" s="51"/>
-      <c r="AA258" s="51"/>
-      <c r="AB258" s="51"/>
-      <c r="AC258" s="51"/>
-      <c r="AD258" s="51"/>
-      <c r="AE258" s="51"/>
-      <c r="AF258" s="51"/>
-      <c r="AG258" s="51"/>
-      <c r="AH258" s="51"/>
-      <c r="AI258" s="51"/>
-      <c r="AJ258" s="51"/>
+      <c r="D258" s="69"/>
+      <c r="E258" s="69"/>
+      <c r="F258" s="69"/>
+      <c r="G258" s="69"/>
+      <c r="H258" s="69"/>
+      <c r="I258" s="69"/>
+      <c r="J258" s="69"/>
+      <c r="K258" s="69"/>
+      <c r="L258" s="69"/>
+      <c r="M258" s="69"/>
+      <c r="N258" s="69"/>
+      <c r="O258" s="69"/>
+      <c r="P258" s="69"/>
+      <c r="Q258" s="69"/>
+      <c r="R258" s="69"/>
+      <c r="S258" s="69"/>
+      <c r="T258" s="69"/>
+      <c r="U258" s="69"/>
+      <c r="V258" s="69"/>
+      <c r="W258" s="69"/>
+      <c r="X258" s="69"/>
+      <c r="Y258" s="69"/>
+      <c r="Z258" s="69"/>
+      <c r="AA258" s="69"/>
+      <c r="AB258" s="69"/>
+      <c r="AC258" s="69"/>
+      <c r="AD258" s="69"/>
+      <c r="AE258" s="69"/>
+      <c r="AF258" s="69"/>
+      <c r="AG258" s="69"/>
+      <c r="AH258" s="69"/>
+      <c r="AI258" s="69"/>
+      <c r="AJ258" s="69"/>
     </row>
     <row r="259" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A259" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="B259" s="70" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C259" s="70" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D259" s="70"/>
-      <c r="E259" s="70"/>
-      <c r="F259" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G259" s="70"/>
-      <c r="H259" s="70"/>
-      <c r="I259" s="70"/>
-      <c r="J259" s="70"/>
-      <c r="K259" s="70"/>
-      <c r="L259" s="70"/>
-      <c r="M259" s="70"/>
-      <c r="N259" s="56" t="s">
-        <v>1937</v>
-      </c>
-      <c r="O259" s="70"/>
-      <c r="P259" s="70"/>
-      <c r="Q259" s="70"/>
-      <c r="R259" s="70"/>
-      <c r="S259" s="70"/>
-      <c r="T259" s="70"/>
-      <c r="U259" s="70"/>
-      <c r="V259" s="70"/>
-      <c r="W259" s="70"/>
-      <c r="X259" s="70"/>
-      <c r="Y259" s="70"/>
-      <c r="Z259" s="70"/>
-      <c r="AA259" s="70"/>
-      <c r="AB259" s="70"/>
-      <c r="AC259" s="70"/>
-      <c r="AD259" s="70"/>
-      <c r="AE259" s="70"/>
-      <c r="AF259" s="70"/>
-      <c r="AG259" s="70"/>
-      <c r="AH259" s="70"/>
-      <c r="AI259" s="70"/>
-      <c r="AJ259" s="70"/>
+      <c r="A259" s="51"/>
+      <c r="B259" s="51"/>
+      <c r="C259" s="51"/>
+      <c r="D259" s="51"/>
+      <c r="E259" s="51"/>
+      <c r="F259" s="51"/>
+      <c r="G259" s="51"/>
+      <c r="H259" s="51"/>
+      <c r="I259" s="51"/>
+      <c r="J259" s="51"/>
+      <c r="K259" s="51"/>
+      <c r="L259" s="51"/>
+      <c r="M259" s="51"/>
+      <c r="N259" s="51"/>
+      <c r="O259" s="51"/>
+      <c r="P259" s="51"/>
+      <c r="Q259" s="51"/>
+      <c r="R259" s="51"/>
+      <c r="S259" s="51"/>
+      <c r="T259" s="51"/>
+      <c r="U259" s="51"/>
+      <c r="V259" s="51"/>
+      <c r="W259" s="51"/>
+      <c r="X259" s="51"/>
+      <c r="Y259" s="51"/>
+      <c r="Z259" s="51"/>
+      <c r="AA259" s="51"/>
+      <c r="AB259" s="51"/>
+      <c r="AC259" s="51"/>
+      <c r="AD259" s="51"/>
+      <c r="AE259" s="51"/>
+      <c r="AF259" s="51"/>
+      <c r="AG259" s="51"/>
+      <c r="AH259" s="51"/>
+      <c r="AI259" s="51"/>
+      <c r="AJ259" s="51"/>
     </row>
     <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" s="70" t="s">
-        <v>2009</v>
+        <v>27</v>
       </c>
       <c r="B260" s="70" t="s">
-        <v>1998</v>
+        <v>1935</v>
       </c>
       <c r="C260" s="70" t="s">
-        <v>2006</v>
+        <v>1936</v>
       </c>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
-      <c r="F260" s="70"/>
+      <c r="F260" s="70" t="s">
+        <v>79</v>
+      </c>
       <c r="G260" s="70"/>
       <c r="H260" s="70"/>
       <c r="I260" s="70"/>
@@ -19200,16 +19174,14 @@
       <c r="L260" s="70"/>
       <c r="M260" s="70"/>
       <c r="N260" s="56" t="s">
-        <v>1753</v>
+        <v>1937</v>
       </c>
       <c r="O260" s="70"/>
       <c r="P260" s="70"/>
       <c r="Q260" s="70"/>
       <c r="R260" s="70"/>
       <c r="S260" s="70"/>
-      <c r="T260" s="70" t="s">
-        <v>108</v>
-      </c>
+      <c r="T260" s="70"/>
       <c r="U260" s="70"/>
       <c r="V260" s="70"/>
       <c r="W260" s="70"/>
@@ -19232,10 +19204,10 @@
         <v>2009</v>
       </c>
       <c r="B261" s="70" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C261" s="70" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
@@ -19247,7 +19219,9 @@
       <c r="K261" s="70"/>
       <c r="L261" s="70"/>
       <c r="M261" s="70"/>
-      <c r="N261" s="56"/>
+      <c r="N261" s="56" t="s">
+        <v>1753</v>
+      </c>
       <c r="O261" s="70"/>
       <c r="P261" s="70"/>
       <c r="Q261" s="70"/>
@@ -19273,78 +19247,72 @@
       <c r="AI261" s="70"/>
       <c r="AJ261" s="70"/>
     </row>
-    <row r="262" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B262" s="56" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C262" s="56" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D262" s="56" t="s">
-        <v>2254</v>
-      </c>
-      <c r="E262" s="56"/>
-      <c r="F262" s="56"/>
-      <c r="G262" s="56"/>
-      <c r="H262" s="56"/>
-      <c r="I262" s="56"/>
-      <c r="J262" s="56"/>
-      <c r="K262" s="56"/>
-      <c r="L262" s="56"/>
-      <c r="M262" s="56"/>
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A262" s="70" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B262" s="70" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C262" s="70" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D262" s="70"/>
+      <c r="E262" s="70"/>
+      <c r="F262" s="70"/>
+      <c r="G262" s="70"/>
+      <c r="H262" s="70"/>
+      <c r="I262" s="70"/>
+      <c r="J262" s="70"/>
+      <c r="K262" s="70"/>
+      <c r="L262" s="70"/>
+      <c r="M262" s="70"/>
       <c r="N262" s="56"/>
-      <c r="O262" s="56"/>
-      <c r="P262" s="56"/>
-      <c r="Q262" s="56"/>
-      <c r="R262" s="56"/>
-      <c r="S262" s="56"/>
-      <c r="T262" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="U262" s="56"/>
-      <c r="V262" s="56"/>
-      <c r="W262" s="56"/>
-      <c r="X262" s="56"/>
-      <c r="Y262" s="56"/>
-      <c r="Z262" s="56"/>
-      <c r="AA262" s="56"/>
-      <c r="AB262" s="56"/>
-      <c r="AC262" s="56"/>
-      <c r="AD262" s="56"/>
-      <c r="AE262" s="56"/>
-      <c r="AF262" s="56"/>
-      <c r="AG262" s="56"/>
-      <c r="AH262" s="56"/>
-      <c r="AI262" s="56"/>
-      <c r="AJ262" s="56"/>
+      <c r="O262" s="70"/>
+      <c r="P262" s="70"/>
+      <c r="Q262" s="70"/>
+      <c r="R262" s="70"/>
+      <c r="S262" s="70"/>
+      <c r="T262" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="U262" s="70"/>
+      <c r="V262" s="70"/>
+      <c r="W262" s="70"/>
+      <c r="X262" s="70"/>
+      <c r="Y262" s="70"/>
+      <c r="Z262" s="70"/>
+      <c r="AA262" s="70"/>
+      <c r="AB262" s="70"/>
+      <c r="AC262" s="70"/>
+      <c r="AD262" s="70"/>
+      <c r="AE262" s="70"/>
+      <c r="AF262" s="70"/>
+      <c r="AG262" s="70"/>
+      <c r="AH262" s="70"/>
+      <c r="AI262" s="70"/>
+      <c r="AJ262" s="70"/>
     </row>
     <row r="263" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="56" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B263" s="56" t="s">
-        <v>2252</v>
+        <v>1583</v>
       </c>
       <c r="C263" s="56" t="s">
-        <v>2253</v>
-      </c>
-      <c r="D263" s="56"/>
+        <v>1888</v>
+      </c>
+      <c r="D263" s="56" t="s">
+        <v>2254</v>
+      </c>
       <c r="E263" s="56"/>
-      <c r="F263" s="56" t="s">
-        <v>38</v>
-      </c>
+      <c r="F263" s="56"/>
       <c r="G263" s="56"/>
       <c r="H263" s="56"/>
-      <c r="I263" s="56" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I263" s="56"/>
       <c r="J263" s="56"/>
-      <c r="K263" s="56" t="s">
-        <v>2251</v>
-      </c>
+      <c r="K263" s="56"/>
       <c r="L263" s="56"/>
       <c r="M263" s="56"/>
       <c r="N263" s="56"/>
@@ -19354,7 +19322,7 @@
       <c r="R263" s="56"/>
       <c r="S263" s="56"/>
       <c r="T263" s="56" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U263" s="56"/>
       <c r="V263" s="56"/>
@@ -19375,24 +19343,28 @@
     </row>
     <row r="264" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="56" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B264" s="56" t="s">
-        <v>1584</v>
+        <v>2252</v>
       </c>
       <c r="C264" s="56" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D264" s="56" t="s">
-        <v>2255</v>
-      </c>
+        <v>2253</v>
+      </c>
+      <c r="D264" s="56"/>
       <c r="E264" s="56"/>
-      <c r="F264" s="56"/>
+      <c r="F264" s="56" t="s">
+        <v>38</v>
+      </c>
       <c r="G264" s="56"/>
       <c r="H264" s="56"/>
-      <c r="I264" s="56"/>
+      <c r="I264" s="56" t="s">
+        <v>1735</v>
+      </c>
       <c r="J264" s="56"/>
-      <c r="K264" s="56"/>
+      <c r="K264" s="56" t="s">
+        <v>2251</v>
+      </c>
       <c r="L264" s="56"/>
       <c r="M264" s="56"/>
       <c r="N264" s="56"/>
@@ -19402,7 +19374,7 @@
       <c r="R264" s="56"/>
       <c r="S264" s="56"/>
       <c r="T264" s="56" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U264" s="56"/>
       <c r="V264" s="56"/>
@@ -19423,28 +19395,24 @@
     </row>
     <row r="265" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="56" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B265" s="56" t="s">
-        <v>2258</v>
+        <v>1584</v>
       </c>
       <c r="C265" s="56" t="s">
-        <v>2260</v>
-      </c>
-      <c r="D265" s="56"/>
+        <v>1889</v>
+      </c>
+      <c r="D265" s="56" t="s">
+        <v>2255</v>
+      </c>
       <c r="E265" s="56"/>
-      <c r="F265" s="56" t="s">
-        <v>38</v>
-      </c>
+      <c r="F265" s="56"/>
       <c r="G265" s="56"/>
       <c r="H265" s="56"/>
-      <c r="I265" s="56" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I265" s="56"/>
       <c r="J265" s="56"/>
-      <c r="K265" s="56" t="s">
-        <v>2259</v>
-      </c>
+      <c r="K265" s="56"/>
       <c r="L265" s="56"/>
       <c r="M265" s="56"/>
       <c r="N265" s="56"/>
@@ -19454,7 +19422,7 @@
       <c r="R265" s="56"/>
       <c r="S265" s="56"/>
       <c r="T265" s="56" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U265" s="56"/>
       <c r="V265" s="56"/>
@@ -19473,24 +19441,30 @@
       <c r="AI265" s="56"/>
       <c r="AJ265" s="56"/>
     </row>
-    <row r="266" spans="1:36" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B266" s="56" t="s">
-        <v>1585</v>
+        <v>2258</v>
       </c>
       <c r="C266" s="56" t="s">
-        <v>1586</v>
+        <v>2260</v>
       </c>
       <c r="D266" s="56"/>
       <c r="E266" s="56"/>
-      <c r="F266" s="56"/>
+      <c r="F266" s="56" t="s">
+        <v>38</v>
+      </c>
       <c r="G266" s="56"/>
       <c r="H266" s="56"/>
-      <c r="I266" s="56"/>
+      <c r="I266" s="56" t="s">
+        <v>1735</v>
+      </c>
       <c r="J266" s="56"/>
-      <c r="K266" s="56"/>
+      <c r="K266" s="56" t="s">
+        <v>2259</v>
+      </c>
       <c r="L266" s="56"/>
       <c r="M266" s="56"/>
       <c r="N266" s="56"/>
@@ -19500,7 +19474,7 @@
       <c r="R266" s="56"/>
       <c r="S266" s="56"/>
       <c r="T266" s="56" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="U266" s="56"/>
       <c r="V266" s="56"/>
@@ -19519,15 +19493,15 @@
       <c r="AI266" s="56"/>
       <c r="AJ266" s="56"/>
     </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:36" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B267" s="56" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C267" s="56" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D267" s="56"/>
       <c r="E267" s="56"/>
@@ -19566,60 +19540,60 @@
       <c r="AJ267" s="56"/>
     </row>
     <row r="268" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A268" s="70" t="s">
-        <v>2009</v>
-      </c>
-      <c r="B268" s="70" t="s">
-        <v>2000</v>
-      </c>
-      <c r="C268" s="70" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D268" s="70"/>
-      <c r="E268" s="70"/>
-      <c r="F268" s="70"/>
-      <c r="G268" s="70"/>
-      <c r="H268" s="70"/>
-      <c r="I268" s="70"/>
-      <c r="J268" s="70"/>
-      <c r="K268" s="70"/>
-      <c r="L268" s="70"/>
-      <c r="M268" s="70"/>
+      <c r="A268" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B268" s="56" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C268" s="56" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D268" s="56"/>
+      <c r="E268" s="56"/>
+      <c r="F268" s="56"/>
+      <c r="G268" s="56"/>
+      <c r="H268" s="56"/>
+      <c r="I268" s="56"/>
+      <c r="J268" s="56"/>
+      <c r="K268" s="56"/>
+      <c r="L268" s="56"/>
+      <c r="M268" s="56"/>
       <c r="N268" s="56"/>
-      <c r="O268" s="70"/>
-      <c r="P268" s="70"/>
-      <c r="Q268" s="70"/>
-      <c r="R268" s="70"/>
-      <c r="S268" s="70"/>
-      <c r="T268" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="U268" s="70"/>
-      <c r="V268" s="70"/>
-      <c r="W268" s="70"/>
-      <c r="X268" s="70"/>
-      <c r="Y268" s="70"/>
-      <c r="Z268" s="70"/>
-      <c r="AA268" s="70"/>
-      <c r="AB268" s="70"/>
-      <c r="AC268" s="70"/>
-      <c r="AD268" s="70"/>
-      <c r="AE268" s="70"/>
-      <c r="AF268" s="70"/>
-      <c r="AG268" s="70"/>
-      <c r="AH268" s="70"/>
-      <c r="AI268" s="70"/>
-      <c r="AJ268" s="70"/>
+      <c r="O268" s="56"/>
+      <c r="P268" s="56"/>
+      <c r="Q268" s="56"/>
+      <c r="R268" s="56"/>
+      <c r="S268" s="56"/>
+      <c r="T268" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="U268" s="56"/>
+      <c r="V268" s="56"/>
+      <c r="W268" s="56"/>
+      <c r="X268" s="56"/>
+      <c r="Y268" s="56"/>
+      <c r="Z268" s="56"/>
+      <c r="AA268" s="56"/>
+      <c r="AB268" s="56"/>
+      <c r="AC268" s="56"/>
+      <c r="AD268" s="56"/>
+      <c r="AE268" s="56"/>
+      <c r="AF268" s="56"/>
+      <c r="AG268" s="56"/>
+      <c r="AH268" s="56"/>
+      <c r="AI268" s="56"/>
+      <c r="AJ268" s="56"/>
     </row>
     <row r="269" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A269" s="70" t="s">
         <v>2009</v>
       </c>
       <c r="B269" s="70" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C269" s="70" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
@@ -19631,9 +19605,7 @@
       <c r="K269" s="70"/>
       <c r="L269" s="70"/>
       <c r="M269" s="70"/>
-      <c r="N269" s="56" t="s">
-        <v>1753</v>
-      </c>
+      <c r="N269" s="56"/>
       <c r="O269" s="70"/>
       <c r="P269" s="70"/>
       <c r="Q269" s="70"/>
@@ -19660,64 +19632,62 @@
       <c r="AJ269" s="70"/>
     </row>
     <row r="270" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A270" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B270" s="56" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C270" s="56" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D270" s="56"/>
-      <c r="E270" s="56"/>
-      <c r="F270" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="G270" s="56"/>
-      <c r="H270" s="56"/>
-      <c r="I270" s="56"/>
-      <c r="J270" s="56"/>
-      <c r="K270" s="56"/>
-      <c r="L270" s="56"/>
-      <c r="M270" s="56"/>
-      <c r="N270" s="56"/>
-      <c r="O270" s="56"/>
-      <c r="P270" s="56"/>
-      <c r="Q270" s="56"/>
-      <c r="R270" s="56"/>
-      <c r="S270" s="56"/>
-      <c r="T270" s="56"/>
-      <c r="U270" s="56"/>
-      <c r="V270" s="56"/>
-      <c r="W270" s="56" t="s">
-        <v>1786</v>
-      </c>
-      <c r="X270" s="56" t="s">
-        <v>1780</v>
-      </c>
-      <c r="Y270" s="56"/>
-      <c r="Z270" s="56"/>
-      <c r="AA270" s="56"/>
-      <c r="AB270" s="56"/>
-      <c r="AC270" s="56"/>
-      <c r="AD270" s="56"/>
-      <c r="AE270" s="56"/>
-      <c r="AF270" s="56"/>
-      <c r="AG270" s="56"/>
-      <c r="AH270" s="56"/>
-      <c r="AI270" s="56"/>
-      <c r="AJ270" s="56"/>
+      <c r="A270" s="70" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B270" s="70" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C270" s="70" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D270" s="70"/>
+      <c r="E270" s="70"/>
+      <c r="F270" s="70"/>
+      <c r="G270" s="70"/>
+      <c r="H270" s="70"/>
+      <c r="I270" s="70"/>
+      <c r="J270" s="70"/>
+      <c r="K270" s="70"/>
+      <c r="L270" s="70"/>
+      <c r="M270" s="70"/>
+      <c r="N270" s="56" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O270" s="70"/>
+      <c r="P270" s="70"/>
+      <c r="Q270" s="70"/>
+      <c r="R270" s="70"/>
+      <c r="S270" s="70"/>
+      <c r="T270" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="U270" s="70"/>
+      <c r="V270" s="70"/>
+      <c r="W270" s="70"/>
+      <c r="X270" s="70"/>
+      <c r="Y270" s="70"/>
+      <c r="Z270" s="70"/>
+      <c r="AA270" s="70"/>
+      <c r="AB270" s="70"/>
+      <c r="AC270" s="70"/>
+      <c r="AD270" s="70"/>
+      <c r="AE270" s="70"/>
+      <c r="AF270" s="70"/>
+      <c r="AG270" s="70"/>
+      <c r="AH270" s="70"/>
+      <c r="AI270" s="70"/>
+      <c r="AJ270" s="70"/>
     </row>
     <row r="271" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A271" s="56" t="s">
-        <v>1770</v>
+        <v>26</v>
       </c>
       <c r="B271" s="56" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C271" s="56" t="s">
-        <v>1997</v>
+        <v>1785</v>
       </c>
       <c r="D271" s="56"/>
       <c r="E271" s="56"/>
@@ -19740,7 +19710,9 @@
       <c r="T271" s="56"/>
       <c r="U271" s="56"/>
       <c r="V271" s="56"/>
-      <c r="W271" s="56"/>
+      <c r="W271" s="56" t="s">
+        <v>1786</v>
+      </c>
       <c r="X271" s="56" t="s">
         <v>1780</v>
       </c>
@@ -19759,19 +19731,19 @@
     </row>
     <row r="272" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A272" s="56" t="s">
-        <v>24</v>
+        <v>1770</v>
       </c>
       <c r="B272" s="56" t="s">
-        <v>1940</v>
+        <v>1783</v>
       </c>
       <c r="C272" s="56" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D272" s="56" t="s">
-        <v>2256</v>
-      </c>
+        <v>1997</v>
+      </c>
+      <c r="D272" s="56"/>
       <c r="E272" s="56"/>
-      <c r="F272" s="56"/>
+      <c r="F272" s="56" t="s">
+        <v>60</v>
+      </c>
       <c r="G272" s="56"/>
       <c r="H272" s="56"/>
       <c r="I272" s="56"/>
@@ -19779,21 +19751,19 @@
       <c r="K272" s="56"/>
       <c r="L272" s="56"/>
       <c r="M272" s="56"/>
-      <c r="N272" s="56" t="s">
-        <v>1753</v>
-      </c>
+      <c r="N272" s="56"/>
       <c r="O272" s="56"/>
       <c r="P272" s="56"/>
       <c r="Q272" s="56"/>
       <c r="R272" s="56"/>
       <c r="S272" s="56"/>
-      <c r="T272" s="56" t="s">
-        <v>92</v>
-      </c>
+      <c r="T272" s="56"/>
       <c r="U272" s="56"/>
       <c r="V272" s="56"/>
       <c r="W272" s="56"/>
-      <c r="X272" s="56"/>
+      <c r="X272" s="56" t="s">
+        <v>1780</v>
+      </c>
       <c r="Y272" s="56"/>
       <c r="Z272" s="56"/>
       <c r="AA272" s="56"/>
@@ -19807,40 +19777,38 @@
       <c r="AI272" s="56"/>
       <c r="AJ272" s="56"/>
     </row>
-    <row r="273" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A273" s="56" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B273" s="56" t="s">
-        <v>2262</v>
+        <v>1940</v>
       </c>
       <c r="C273" s="56" t="s">
-        <v>2264</v>
-      </c>
-      <c r="D273" s="56"/>
+        <v>1938</v>
+      </c>
+      <c r="D273" s="56" t="s">
+        <v>2256</v>
+      </c>
       <c r="E273" s="56"/>
-      <c r="F273" s="56" t="s">
-        <v>38</v>
-      </c>
+      <c r="F273" s="56"/>
       <c r="G273" s="56"/>
       <c r="H273" s="56"/>
-      <c r="I273" s="56" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I273" s="56"/>
       <c r="J273" s="56"/>
-      <c r="K273" s="56" t="s">
-        <v>2263</v>
-      </c>
+      <c r="K273" s="56"/>
       <c r="L273" s="56"/>
       <c r="M273" s="56"/>
-      <c r="N273" s="56"/>
+      <c r="N273" s="56" t="s">
+        <v>1753</v>
+      </c>
       <c r="O273" s="56"/>
       <c r="P273" s="56"/>
       <c r="Q273" s="56"/>
       <c r="R273" s="56"/>
       <c r="S273" s="56"/>
       <c r="T273" s="56" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U273" s="56"/>
       <c r="V273" s="56"/>
@@ -19859,38 +19827,40 @@
       <c r="AI273" s="56"/>
       <c r="AJ273" s="56"/>
     </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="56" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B274" s="56" t="s">
-        <v>1941</v>
+        <v>2262</v>
       </c>
       <c r="C274" s="56" t="s">
-        <v>1939</v>
-      </c>
-      <c r="D274" s="56" t="s">
-        <v>2257</v>
-      </c>
+        <v>2264</v>
+      </c>
+      <c r="D274" s="56"/>
       <c r="E274" s="56"/>
-      <c r="F274" s="56"/>
+      <c r="F274" s="56" t="s">
+        <v>38</v>
+      </c>
       <c r="G274" s="56"/>
       <c r="H274" s="56"/>
-      <c r="I274" s="56"/>
+      <c r="I274" s="56" t="s">
+        <v>1735</v>
+      </c>
       <c r="J274" s="56"/>
-      <c r="K274" s="56"/>
+      <c r="K274" s="56" t="s">
+        <v>2263</v>
+      </c>
       <c r="L274" s="56"/>
       <c r="M274" s="56"/>
-      <c r="N274" s="56" t="s">
-        <v>1753</v>
-      </c>
+      <c r="N274" s="56"/>
       <c r="O274" s="56"/>
       <c r="P274" s="56"/>
       <c r="Q274" s="56"/>
       <c r="R274" s="56"/>
       <c r="S274" s="56"/>
       <c r="T274" s="56" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U274" s="56"/>
       <c r="V274" s="56"/>
@@ -19909,40 +19879,38 @@
       <c r="AI274" s="56"/>
       <c r="AJ274" s="56"/>
     </row>
-    <row r="275" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A275" s="56" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B275" s="56" t="s">
-        <v>2265</v>
+        <v>1941</v>
       </c>
       <c r="C275" s="56" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D275" s="56"/>
+        <v>1939</v>
+      </c>
+      <c r="D275" s="56" t="s">
+        <v>2257</v>
+      </c>
       <c r="E275" s="56"/>
-      <c r="F275" s="56" t="s">
-        <v>38</v>
-      </c>
+      <c r="F275" s="56"/>
       <c r="G275" s="56"/>
       <c r="H275" s="56"/>
-      <c r="I275" s="56" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I275" s="56"/>
       <c r="J275" s="56"/>
-      <c r="K275" s="56" t="s">
-        <v>2266</v>
-      </c>
+      <c r="K275" s="56"/>
       <c r="L275" s="56"/>
       <c r="M275" s="56"/>
-      <c r="N275" s="56"/>
+      <c r="N275" s="56" t="s">
+        <v>1753</v>
+      </c>
       <c r="O275" s="56"/>
       <c r="P275" s="56"/>
       <c r="Q275" s="56"/>
       <c r="R275" s="56"/>
       <c r="S275" s="56"/>
       <c r="T275" s="56" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U275" s="56"/>
       <c r="V275" s="56"/>
@@ -19961,43 +19929,45 @@
       <c r="AI275" s="56"/>
       <c r="AJ275" s="56"/>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="56" t="s">
-        <v>1770</v>
+        <v>11</v>
       </c>
       <c r="B276" s="56" t="s">
-        <v>1995</v>
+        <v>2265</v>
       </c>
       <c r="C276" s="56" t="s">
-        <v>1996</v>
+        <v>2267</v>
       </c>
       <c r="D276" s="56"/>
       <c r="E276" s="56"/>
       <c r="F276" s="56" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G276" s="56"/>
       <c r="H276" s="56"/>
-      <c r="I276" s="56"/>
+      <c r="I276" s="56" t="s">
+        <v>1735</v>
+      </c>
       <c r="J276" s="56"/>
-      <c r="K276" s="56"/>
+      <c r="K276" s="56" t="s">
+        <v>2266</v>
+      </c>
       <c r="L276" s="56"/>
       <c r="M276" s="56"/>
-      <c r="N276" s="56" t="s">
-        <v>1753</v>
-      </c>
+      <c r="N276" s="56"/>
       <c r="O276" s="56"/>
       <c r="P276" s="56"/>
       <c r="Q276" s="56"/>
       <c r="R276" s="56"/>
       <c r="S276" s="56"/>
-      <c r="T276" s="56"/>
+      <c r="T276" s="56" t="s">
+        <v>108</v>
+      </c>
       <c r="U276" s="56"/>
       <c r="V276" s="56"/>
       <c r="W276" s="56"/>
-      <c r="X276" s="56" t="s">
-        <v>1780</v>
-      </c>
+      <c r="X276" s="56"/>
       <c r="Y276" s="56"/>
       <c r="Z276" s="56"/>
       <c r="AA276" s="56"/>
@@ -20012,148 +19982,150 @@
       <c r="AJ276" s="56"/>
     </row>
     <row r="277" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A277" s="70" t="s">
+      <c r="A277" s="56" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B277" s="56" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C277" s="56" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D277" s="56"/>
+      <c r="E277" s="56"/>
+      <c r="F277" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G277" s="56"/>
+      <c r="H277" s="56"/>
+      <c r="I277" s="56"/>
+      <c r="J277" s="56"/>
+      <c r="K277" s="56"/>
+      <c r="L277" s="56"/>
+      <c r="M277" s="56"/>
+      <c r="N277" s="56" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O277" s="56"/>
+      <c r="P277" s="56"/>
+      <c r="Q277" s="56"/>
+      <c r="R277" s="56"/>
+      <c r="S277" s="56"/>
+      <c r="T277" s="56"/>
+      <c r="U277" s="56"/>
+      <c r="V277" s="56"/>
+      <c r="W277" s="56"/>
+      <c r="X277" s="56" t="s">
+        <v>1780</v>
+      </c>
+      <c r="Y277" s="56"/>
+      <c r="Z277" s="56"/>
+      <c r="AA277" s="56"/>
+      <c r="AB277" s="56"/>
+      <c r="AC277" s="56"/>
+      <c r="AD277" s="56"/>
+      <c r="AE277" s="56"/>
+      <c r="AF277" s="56"/>
+      <c r="AG277" s="56"/>
+      <c r="AH277" s="56"/>
+      <c r="AI277" s="56"/>
+      <c r="AJ277" s="56"/>
+    </row>
+    <row r="278" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A278" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B277" s="70"/>
-      <c r="C277" s="70" t="s">
+      <c r="B278" s="70"/>
+      <c r="C278" s="70" t="s">
         <v>1936</v>
       </c>
-      <c r="D277" s="70"/>
-      <c r="E277" s="70"/>
-      <c r="F277" s="70"/>
-      <c r="G277" s="70"/>
-      <c r="H277" s="70"/>
-      <c r="I277" s="70"/>
-      <c r="J277" s="70"/>
-      <c r="K277" s="70"/>
-      <c r="L277" s="70"/>
-      <c r="M277" s="70"/>
-      <c r="N277" s="70"/>
-      <c r="O277" s="70"/>
-      <c r="P277" s="70"/>
-      <c r="Q277" s="70"/>
-      <c r="R277" s="70"/>
-      <c r="S277" s="70"/>
-      <c r="T277" s="70"/>
-      <c r="U277" s="70"/>
-      <c r="V277" s="70"/>
-      <c r="W277" s="70"/>
-      <c r="X277" s="70"/>
-      <c r="Y277" s="70"/>
-      <c r="Z277" s="70"/>
-      <c r="AA277" s="70"/>
-      <c r="AB277" s="70"/>
-      <c r="AC277" s="70"/>
-      <c r="AD277" s="70"/>
-      <c r="AE277" s="70"/>
-      <c r="AF277" s="70"/>
-      <c r="AG277" s="70"/>
-      <c r="AH277" s="70"/>
-      <c r="AI277" s="70"/>
-      <c r="AJ277" s="70"/>
-    </row>
-    <row r="278" spans="1:36" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="60"/>
-      <c r="B278" s="60"/>
-      <c r="C278" s="60"/>
-      <c r="D278"/>
-      <c r="E278"/>
-      <c r="F278"/>
-      <c r="G278"/>
-      <c r="H278"/>
-      <c r="I278"/>
-      <c r="J278"/>
-      <c r="K278"/>
-      <c r="L278"/>
-      <c r="M278"/>
-      <c r="N278"/>
-      <c r="O278"/>
-      <c r="P278"/>
-      <c r="Q278"/>
-      <c r="R278"/>
-      <c r="S278"/>
-      <c r="T278"/>
-      <c r="U278"/>
-      <c r="V278"/>
-      <c r="W278"/>
-      <c r="X278"/>
-      <c r="Y278"/>
-      <c r="Z278"/>
-      <c r="AA278"/>
-      <c r="AB278"/>
-      <c r="AC278"/>
-      <c r="AD278"/>
-      <c r="AE278"/>
-      <c r="AF278"/>
-      <c r="AG278"/>
-      <c r="AH278"/>
-      <c r="AI278"/>
-      <c r="AJ278"/>
+      <c r="D278" s="70"/>
+      <c r="E278" s="70"/>
+      <c r="F278" s="70"/>
+      <c r="G278" s="70"/>
+      <c r="H278" s="70"/>
+      <c r="I278" s="70"/>
+      <c r="J278" s="70"/>
+      <c r="K278" s="70"/>
+      <c r="L278" s="70"/>
+      <c r="M278" s="70"/>
+      <c r="N278" s="70"/>
+      <c r="O278" s="70"/>
+      <c r="P278" s="70"/>
+      <c r="Q278" s="70"/>
+      <c r="R278" s="70"/>
+      <c r="S278" s="70"/>
+      <c r="T278" s="70"/>
+      <c r="U278" s="70"/>
+      <c r="V278" s="70"/>
+      <c r="W278" s="70"/>
+      <c r="X278" s="70"/>
+      <c r="Y278" s="70"/>
+      <c r="Z278" s="70"/>
+      <c r="AA278" s="70"/>
+      <c r="AB278" s="70"/>
+      <c r="AC278" s="70"/>
+      <c r="AD278" s="70"/>
+      <c r="AE278" s="70"/>
+      <c r="AF278" s="70"/>
+      <c r="AG278" s="70"/>
+      <c r="AH278" s="70"/>
+      <c r="AI278" s="70"/>
+      <c r="AJ278" s="70"/>
     </row>
     <row r="279" spans="1:36" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="55" t="s">
+      <c r="A279" s="60"/>
+      <c r="B279" s="60"/>
+      <c r="C279" s="60"/>
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279"/>
+      <c r="G279"/>
+      <c r="H279"/>
+      <c r="I279"/>
+      <c r="J279"/>
+      <c r="K279"/>
+      <c r="L279"/>
+      <c r="M279"/>
+      <c r="N279"/>
+      <c r="O279"/>
+      <c r="P279"/>
+      <c r="Q279"/>
+      <c r="R279"/>
+      <c r="S279"/>
+      <c r="T279"/>
+      <c r="U279"/>
+      <c r="V279"/>
+      <c r="W279"/>
+      <c r="X279"/>
+      <c r="Y279"/>
+      <c r="Z279"/>
+      <c r="AA279"/>
+      <c r="AB279"/>
+      <c r="AC279"/>
+      <c r="AD279"/>
+      <c r="AE279"/>
+      <c r="AF279"/>
+      <c r="AG279"/>
+      <c r="AH279"/>
+      <c r="AI279"/>
+      <c r="AJ279"/>
+    </row>
+    <row r="280" spans="1:36" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B279" s="55" t="s">
+      <c r="B280" s="55" t="s">
         <v>2188</v>
       </c>
-      <c r="C279" s="55" t="s">
+      <c r="C280" s="55" t="s">
         <v>2187</v>
       </c>
-      <c r="D279" s="55"/>
-      <c r="E279" s="55"/>
-      <c r="F279" s="55" t="s">
+      <c r="D280" s="55"/>
+      <c r="E280" s="55"/>
+      <c r="F280" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="G279" s="55"/>
-      <c r="H279" s="55"/>
-      <c r="I279" s="55"/>
-      <c r="J279" s="55"/>
-      <c r="K279" s="55"/>
-      <c r="L279" s="55"/>
-      <c r="M279" s="55"/>
-      <c r="N279" s="55" t="s">
-        <v>2283</v>
-      </c>
-      <c r="O279" s="55"/>
-      <c r="P279" s="55"/>
-      <c r="Q279" s="55"/>
-      <c r="R279" s="55"/>
-      <c r="S279" s="55"/>
-      <c r="T279" s="55"/>
-      <c r="U279" s="55"/>
-      <c r="V279" s="55"/>
-      <c r="W279" s="55"/>
-      <c r="X279" s="55"/>
-      <c r="Y279" s="55"/>
-      <c r="Z279" s="55"/>
-      <c r="AA279" s="55"/>
-      <c r="AB279" s="55"/>
-      <c r="AC279" s="55"/>
-      <c r="AD279" s="55"/>
-      <c r="AE279" s="55"/>
-      <c r="AF279" s="55"/>
-      <c r="AG279" s="55"/>
-      <c r="AH279" s="55"/>
-      <c r="AI279" s="55"/>
-      <c r="AJ279" s="55"/>
-    </row>
-    <row r="280" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B280" s="55" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C280" s="55" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D280" s="55" t="s">
-        <v>2140</v>
-      </c>
-      <c r="E280" s="55"/>
-      <c r="F280" s="55"/>
       <c r="G280" s="55"/>
       <c r="H280" s="55"/>
       <c r="I280" s="55"/>
@@ -20161,15 +20133,15 @@
       <c r="K280" s="55"/>
       <c r="L280" s="55"/>
       <c r="M280" s="55"/>
-      <c r="N280" s="55"/>
+      <c r="N280" s="55" t="s">
+        <v>2283</v>
+      </c>
       <c r="O280" s="55"/>
       <c r="P280" s="55"/>
       <c r="Q280" s="55"/>
       <c r="R280" s="55"/>
       <c r="S280" s="55"/>
-      <c r="T280" s="55" t="s">
-        <v>92</v>
-      </c>
+      <c r="T280" s="55"/>
       <c r="U280" s="55"/>
       <c r="V280" s="55"/>
       <c r="W280" s="55"/>
@@ -20189,28 +20161,24 @@
     </row>
     <row r="281" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="55" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B281" s="55" t="s">
-        <v>2137</v>
+        <v>1563</v>
       </c>
       <c r="C281" s="55" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D281" s="55"/>
+        <v>1909</v>
+      </c>
+      <c r="D281" s="55" t="s">
+        <v>2140</v>
+      </c>
       <c r="E281" s="55"/>
-      <c r="F281" s="55" t="s">
-        <v>38</v>
-      </c>
+      <c r="F281" s="55"/>
       <c r="G281" s="55"/>
       <c r="H281" s="55"/>
-      <c r="I281" s="55" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I281" s="55"/>
       <c r="J281" s="55"/>
-      <c r="K281" s="55" t="s">
-        <v>2139</v>
-      </c>
+      <c r="K281" s="55"/>
       <c r="L281" s="55"/>
       <c r="M281" s="55"/>
       <c r="N281" s="55"/>
@@ -20220,7 +20188,7 @@
       <c r="R281" s="55"/>
       <c r="S281" s="55"/>
       <c r="T281" s="55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U281" s="55"/>
       <c r="V281" s="55"/>
@@ -20241,24 +20209,28 @@
     </row>
     <row r="282" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="55" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B282" s="55" t="s">
-        <v>1564</v>
+        <v>2137</v>
       </c>
       <c r="C282" s="55" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D282" s="55" t="s">
-        <v>2141</v>
-      </c>
+        <v>2138</v>
+      </c>
+      <c r="D282" s="55"/>
       <c r="E282" s="55"/>
-      <c r="F282" s="55"/>
+      <c r="F282" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="G282" s="55"/>
       <c r="H282" s="55"/>
-      <c r="I282" s="55"/>
+      <c r="I282" s="55" t="s">
+        <v>1735</v>
+      </c>
       <c r="J282" s="55"/>
-      <c r="K282" s="55"/>
+      <c r="K282" s="55" t="s">
+        <v>2139</v>
+      </c>
       <c r="L282" s="55"/>
       <c r="M282" s="55"/>
       <c r="N282" s="55"/>
@@ -20268,7 +20240,7 @@
       <c r="R282" s="55"/>
       <c r="S282" s="55"/>
       <c r="T282" s="55" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U282" s="55"/>
       <c r="V282" s="55"/>
@@ -20289,28 +20261,24 @@
     </row>
     <row r="283" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="55" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B283" s="55" t="s">
-        <v>2142</v>
+        <v>1564</v>
       </c>
       <c r="C283" s="55" t="s">
-        <v>2143</v>
-      </c>
-      <c r="D283" s="55"/>
+        <v>1908</v>
+      </c>
+      <c r="D283" s="55" t="s">
+        <v>2141</v>
+      </c>
       <c r="E283" s="55"/>
-      <c r="F283" s="55" t="s">
-        <v>38</v>
-      </c>
+      <c r="F283" s="55"/>
       <c r="G283" s="55"/>
       <c r="H283" s="55"/>
-      <c r="I283" s="55" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I283" s="55"/>
       <c r="J283" s="55"/>
-      <c r="K283" s="55" t="s">
-        <v>2144</v>
-      </c>
+      <c r="K283" s="55"/>
       <c r="L283" s="55"/>
       <c r="M283" s="55"/>
       <c r="N283" s="55"/>
@@ -20320,7 +20288,7 @@
       <c r="R283" s="55"/>
       <c r="S283" s="55"/>
       <c r="T283" s="55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U283" s="55"/>
       <c r="V283" s="55"/>
@@ -20341,24 +20309,28 @@
     </row>
     <row r="284" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="55" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B284" s="55" t="s">
-        <v>1782</v>
+        <v>2142</v>
       </c>
       <c r="C284" s="55" t="s">
-        <v>1781</v>
+        <v>2143</v>
       </c>
       <c r="D284" s="55"/>
       <c r="E284" s="55"/>
       <c r="F284" s="55" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G284" s="55"/>
       <c r="H284" s="55"/>
-      <c r="I284" s="55"/>
+      <c r="I284" s="55" t="s">
+        <v>1735</v>
+      </c>
       <c r="J284" s="55"/>
-      <c r="K284" s="55"/>
+      <c r="K284" s="55" t="s">
+        <v>2144</v>
+      </c>
       <c r="L284" s="55"/>
       <c r="M284" s="55"/>
       <c r="N284" s="55"/>
@@ -20367,13 +20339,13 @@
       <c r="Q284" s="55"/>
       <c r="R284" s="55"/>
       <c r="S284" s="55"/>
-      <c r="T284" s="55"/>
+      <c r="T284" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="U284" s="55"/>
       <c r="V284" s="55"/>
       <c r="W284" s="55"/>
-      <c r="X284" s="55" t="s">
-        <v>1780</v>
-      </c>
+      <c r="X284" s="55"/>
       <c r="Y284" s="55"/>
       <c r="Z284" s="55"/>
       <c r="AA284" s="55"/>
@@ -20387,35 +20359,63 @@
       <c r="AI284" s="55"/>
       <c r="AJ284" s="55"/>
     </row>
-    <row r="285" spans="1:36" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="55" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B285" s="55" t="s">
-        <v>1927</v>
+        <v>1782</v>
       </c>
       <c r="C285" s="55" t="s">
-        <v>2199</v>
-      </c>
-      <c r="N285" s="55" t="s">
-        <v>2322</v>
-      </c>
-      <c r="T285" s="55" t="s">
-        <v>108</v>
-      </c>
+        <v>1781</v>
+      </c>
+      <c r="D285" s="55"/>
+      <c r="E285" s="55"/>
+      <c r="F285" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G285" s="55"/>
+      <c r="H285" s="55"/>
+      <c r="I285" s="55"/>
+      <c r="J285" s="55"/>
+      <c r="K285" s="55"/>
+      <c r="L285" s="55"/>
+      <c r="M285" s="55"/>
+      <c r="N285" s="55"/>
+      <c r="O285" s="55"/>
+      <c r="P285" s="55"/>
+      <c r="Q285" s="55"/>
+      <c r="R285" s="55"/>
+      <c r="S285" s="55"/>
+      <c r="T285" s="55"/>
+      <c r="U285" s="55"/>
+      <c r="V285" s="55"/>
+      <c r="W285" s="55"/>
+      <c r="X285" s="55" t="s">
+        <v>1780</v>
+      </c>
+      <c r="Y285" s="55"/>
+      <c r="Z285" s="55"/>
+      <c r="AA285" s="55"/>
+      <c r="AB285" s="55"/>
+      <c r="AC285" s="55"/>
+      <c r="AD285" s="55"/>
+      <c r="AE285" s="55"/>
+      <c r="AF285" s="55"/>
+      <c r="AG285" s="55"/>
+      <c r="AH285" s="55"/>
+      <c r="AI285" s="55"/>
+      <c r="AJ285" s="55"/>
     </row>
     <row r="286" spans="1:36" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="55" t="s">
-        <v>1503</v>
+        <v>15</v>
       </c>
       <c r="B286" s="55" t="s">
-        <v>1964</v>
+        <v>1927</v>
       </c>
       <c r="C286" s="55" t="s">
-        <v>1763</v>
-      </c>
-      <c r="F286" s="55" t="s">
-        <v>55</v>
+        <v>2199</v>
       </c>
       <c r="N286" s="55" t="s">
         <v>2322</v>
@@ -20424,178 +20424,146 @@
         <v>108</v>
       </c>
     </row>
-    <row r="287" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:36" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="55" t="s">
-        <v>38</v>
+        <v>1503</v>
       </c>
       <c r="B287" s="55" t="s">
-        <v>1559</v>
+        <v>1964</v>
       </c>
       <c r="C287" s="55" t="s">
         <v>1763</v>
       </c>
-      <c r="D287" s="55" t="s">
+      <c r="F287" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="N287" s="55" t="s">
+        <v>2322</v>
+      </c>
+      <c r="T287" s="55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="288" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A288" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B288" s="55" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C288" s="55" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D288" s="55" t="s">
         <v>1969</v>
       </c>
-      <c r="E287" s="55"/>
-      <c r="F287" s="55"/>
-      <c r="G287" s="55"/>
-      <c r="H287" s="55"/>
-      <c r="I287" s="55"/>
-      <c r="J287" s="55"/>
-      <c r="K287" s="55" t="s">
+      <c r="E288" s="55"/>
+      <c r="F288" s="55"/>
+      <c r="G288" s="55"/>
+      <c r="H288" s="55"/>
+      <c r="I288" s="55"/>
+      <c r="J288" s="55"/>
+      <c r="K288" s="55" t="s">
         <v>1971</v>
       </c>
-      <c r="L287" s="55"/>
-      <c r="M287" s="55"/>
-      <c r="N287" s="55"/>
-      <c r="O287" s="55"/>
-      <c r="P287" s="55"/>
-      <c r="Q287" s="55"/>
-      <c r="R287" s="55"/>
-      <c r="S287" s="55"/>
-      <c r="T287" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="U287" s="55">
-        <v>3</v>
-      </c>
-      <c r="V287" s="55"/>
-      <c r="W287" s="55"/>
-      <c r="X287" s="55"/>
-      <c r="Y287" s="55"/>
-      <c r="Z287" s="55"/>
-      <c r="AA287" s="55"/>
-      <c r="AB287" s="55"/>
-      <c r="AC287" s="55"/>
-      <c r="AD287" s="55"/>
-      <c r="AE287" s="55"/>
-      <c r="AF287" s="55"/>
-      <c r="AG287" s="55"/>
-      <c r="AH287" s="55"/>
-      <c r="AI287" s="55"/>
-      <c r="AJ287" s="55"/>
-    </row>
-    <row r="288" spans="1:36" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="55" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B288" s="55" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C288" s="55" t="s">
-        <v>2315</v>
-      </c>
-      <c r="F288" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="N288" s="55" t="s">
-        <v>2314</v>
-      </c>
+      <c r="L288" s="55"/>
+      <c r="M288" s="55"/>
+      <c r="N288" s="55"/>
+      <c r="O288" s="55"/>
+      <c r="P288" s="55"/>
+      <c r="Q288" s="55"/>
+      <c r="R288" s="55"/>
+      <c r="S288" s="55"/>
       <c r="T288" s="55" t="s">
         <v>102</v>
       </c>
       <c r="U288" s="55">
+        <v>3</v>
+      </c>
+      <c r="V288" s="55"/>
+      <c r="W288" s="55"/>
+      <c r="X288" s="55"/>
+      <c r="Y288" s="55"/>
+      <c r="Z288" s="55"/>
+      <c r="AA288" s="55"/>
+      <c r="AB288" s="55"/>
+      <c r="AC288" s="55"/>
+      <c r="AD288" s="55"/>
+      <c r="AE288" s="55"/>
+      <c r="AF288" s="55"/>
+      <c r="AG288" s="55"/>
+      <c r="AH288" s="55"/>
+      <c r="AI288" s="55"/>
+      <c r="AJ288" s="55"/>
+    </row>
+    <row r="289" spans="1:36" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="55" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B289" s="55" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C289" s="55" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F289" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N289" s="55" t="s">
+        <v>2314</v>
+      </c>
+      <c r="T289" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="U289" s="55">
         <v>32</v>
       </c>
     </row>
-    <row r="289" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>11</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B290" t="s">
         <v>1854</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C290" t="s">
         <v>1872</v>
       </c>
-      <c r="N289" t="s">
+      <c r="N290" t="s">
         <v>1855</v>
       </c>
-      <c r="T289" t="s">
+      <c r="T290" t="s">
         <v>102</v>
       </c>
-      <c r="U289">
+      <c r="U290">
         <v>1024</v>
       </c>
     </row>
-    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A290" s="55" t="s">
+    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A291" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B290" s="55" t="s">
+      <c r="B291" s="55" t="s">
         <v>1966</v>
       </c>
-      <c r="C290" s="55" t="s">
+      <c r="C291" s="55" t="s">
         <v>1904</v>
       </c>
-      <c r="D290" s="55" t="s">
+      <c r="D291" s="55" t="s">
         <v>2261</v>
       </c>
-      <c r="E290" s="55"/>
-      <c r="F290" s="55"/>
-      <c r="G290" s="55"/>
-      <c r="H290" s="55"/>
-      <c r="I290" s="55"/>
-      <c r="J290" s="55"/>
-      <c r="K290" s="55"/>
-      <c r="L290" s="55"/>
-      <c r="M290" s="55"/>
-      <c r="N290" s="55" t="s">
-        <v>1965</v>
-      </c>
-      <c r="O290" s="55"/>
-      <c r="P290" s="55"/>
-      <c r="Q290" s="55"/>
-      <c r="R290" s="55"/>
-      <c r="S290" s="55"/>
-      <c r="T290" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="U290" s="55"/>
-      <c r="V290" s="55"/>
-      <c r="W290" s="55"/>
-      <c r="X290" s="55"/>
-      <c r="Y290" s="55"/>
-      <c r="Z290" s="55"/>
-      <c r="AA290" s="55"/>
-      <c r="AB290" s="55"/>
-      <c r="AC290" s="55"/>
-      <c r="AD290" s="55"/>
-      <c r="AE290" s="55"/>
-      <c r="AF290" s="55"/>
-      <c r="AG290" s="55"/>
-      <c r="AH290" s="55"/>
-      <c r="AI290" s="55"/>
-      <c r="AJ290" s="55"/>
-    </row>
-    <row r="291" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B291" s="55" t="s">
-        <v>2268</v>
-      </c>
-      <c r="C291" s="55" t="s">
-        <v>2269</v>
-      </c>
-      <c r="D291" s="55"/>
       <c r="E291" s="55"/>
-      <c r="F291" s="55" t="s">
-        <v>38</v>
-      </c>
+      <c r="F291" s="55"/>
       <c r="G291" s="55"/>
       <c r="H291" s="55"/>
-      <c r="I291" s="55" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I291" s="55"/>
       <c r="J291" s="55"/>
-      <c r="K291" s="55" t="s">
-        <v>2270</v>
-      </c>
+      <c r="K291" s="55"/>
       <c r="L291" s="55"/>
       <c r="M291" s="55"/>
-      <c r="N291" s="55"/>
+      <c r="N291" s="55" t="s">
+        <v>1965</v>
+      </c>
       <c r="O291" s="55"/>
       <c r="P291" s="55"/>
       <c r="Q291" s="55"/>
@@ -20621,27 +20589,29 @@
       <c r="AI291" s="55"/>
       <c r="AJ291" s="55"/>
     </row>
-    <row r="292" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B292" s="55" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C292" s="55" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D292" s="55"/>
+      <c r="E292" s="55"/>
+      <c r="F292" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B292" s="55" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C292" s="55" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D292" s="55" t="s">
-        <v>1970</v>
-      </c>
-      <c r="E292" s="55"/>
-      <c r="F292" s="55"/>
       <c r="G292" s="55"/>
       <c r="H292" s="55"/>
-      <c r="I292" s="55"/>
+      <c r="I292" s="55" t="s">
+        <v>1735</v>
+      </c>
       <c r="J292" s="55"/>
       <c r="K292" s="55" t="s">
-        <v>1972</v>
+        <v>2270</v>
       </c>
       <c r="L292" s="55"/>
       <c r="M292" s="55"/>
@@ -20652,7 +20622,7 @@
       <c r="R292" s="55"/>
       <c r="S292" s="55"/>
       <c r="T292" s="55" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U292" s="55"/>
       <c r="V292" s="55"/>
@@ -20673,16 +20643,16 @@
     </row>
     <row r="293" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A293" s="55" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B293" s="55" t="s">
-        <v>2107</v>
+        <v>1562</v>
       </c>
       <c r="C293" s="55" t="s">
-        <v>1928</v>
+        <v>1904</v>
       </c>
       <c r="D293" s="55" t="s">
-        <v>2108</v>
+        <v>1970</v>
       </c>
       <c r="E293" s="55"/>
       <c r="F293" s="55"/>
@@ -20690,23 +20660,19 @@
       <c r="H293" s="55"/>
       <c r="I293" s="55"/>
       <c r="J293" s="55"/>
-      <c r="K293" s="55"/>
-      <c r="L293" s="55" t="s">
-        <v>2094</v>
-      </c>
-      <c r="M293" s="55" t="s">
-        <v>2096</v>
-      </c>
-      <c r="N293" s="55" t="s">
-        <v>1965</v>
-      </c>
+      <c r="K293" s="55" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L293" s="55"/>
+      <c r="M293" s="55"/>
+      <c r="N293" s="55"/>
       <c r="O293" s="55"/>
       <c r="P293" s="55"/>
       <c r="Q293" s="55"/>
       <c r="R293" s="55"/>
       <c r="S293" s="55"/>
       <c r="T293" s="55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U293" s="55"/>
       <c r="V293" s="55"/>
@@ -20727,28 +20693,30 @@
     </row>
     <row r="294" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A294" s="55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B294" s="55" t="s">
-        <v>1952</v>
+        <v>2107</v>
       </c>
       <c r="C294" s="55" t="s">
         <v>1928</v>
       </c>
-      <c r="D294" s="55"/>
+      <c r="D294" s="55" t="s">
+        <v>2108</v>
+      </c>
       <c r="E294" s="55"/>
-      <c r="F294" s="55" t="s">
-        <v>38</v>
-      </c>
+      <c r="F294" s="55"/>
       <c r="G294" s="55"/>
       <c r="H294" s="55"/>
       <c r="I294" s="55"/>
       <c r="J294" s="55"/>
-      <c r="K294" s="55" t="s">
-        <v>2109</v>
-      </c>
-      <c r="L294" s="55"/>
-      <c r="M294" s="55"/>
+      <c r="K294" s="55"/>
+      <c r="L294" s="55" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M294" s="55" t="s">
+        <v>2096</v>
+      </c>
       <c r="N294" s="55" t="s">
         <v>1965</v>
       </c>
@@ -20758,7 +20726,7 @@
       <c r="R294" s="55"/>
       <c r="S294" s="55"/>
       <c r="T294" s="55" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="U294" s="55"/>
       <c r="V294" s="55"/>
@@ -20767,7 +20735,7 @@
       <c r="Y294" s="55"/>
       <c r="Z294" s="55"/>
       <c r="AA294" s="55"/>
-      <c r="AB294" s="62"/>
+      <c r="AB294" s="55"/>
       <c r="AC294" s="55"/>
       <c r="AD294" s="55"/>
       <c r="AE294" s="55"/>
@@ -20779,24 +20747,26 @@
     </row>
     <row r="295" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A295" s="55" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B295" s="55" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C295" s="55" t="s">
-        <v>1924</v>
-      </c>
-      <c r="D295" s="55" t="s">
-        <v>2273</v>
-      </c>
+        <v>1928</v>
+      </c>
+      <c r="D295" s="55"/>
       <c r="E295" s="55"/>
-      <c r="F295" s="55"/>
+      <c r="F295" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="G295" s="55"/>
       <c r="H295" s="55"/>
       <c r="I295" s="55"/>
       <c r="J295" s="55"/>
-      <c r="K295" s="55"/>
+      <c r="K295" s="55" t="s">
+        <v>2109</v>
+      </c>
       <c r="L295" s="55"/>
       <c r="M295" s="55"/>
       <c r="N295" s="55" t="s">
@@ -20808,7 +20778,7 @@
       <c r="R295" s="55"/>
       <c r="S295" s="55"/>
       <c r="T295" s="55" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="U295" s="55"/>
       <c r="V295" s="55"/>
@@ -20817,7 +20787,7 @@
       <c r="Y295" s="55"/>
       <c r="Z295" s="55"/>
       <c r="AA295" s="55"/>
-      <c r="AB295" s="55"/>
+      <c r="AB295" s="62"/>
       <c r="AC295" s="55"/>
       <c r="AD295" s="55"/>
       <c r="AE295" s="55"/>
@@ -20827,40 +20797,38 @@
       <c r="AI295" s="55"/>
       <c r="AJ295" s="55"/>
     </row>
-    <row r="296" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A296" s="55" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B296" s="55" t="s">
-        <v>2271</v>
+        <v>1953</v>
       </c>
       <c r="C296" s="55" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D296" s="55"/>
+        <v>1924</v>
+      </c>
+      <c r="D296" s="55" t="s">
+        <v>2273</v>
+      </c>
       <c r="E296" s="55"/>
-      <c r="F296" s="55" t="s">
-        <v>38</v>
-      </c>
+      <c r="F296" s="55"/>
       <c r="G296" s="55"/>
       <c r="H296" s="55"/>
-      <c r="I296" s="55" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I296" s="55"/>
       <c r="J296" s="55"/>
-      <c r="K296" s="55" t="s">
-        <v>2272</v>
-      </c>
+      <c r="K296" s="55"/>
       <c r="L296" s="55"/>
       <c r="M296" s="55"/>
-      <c r="N296" s="55"/>
+      <c r="N296" s="55" t="s">
+        <v>1965</v>
+      </c>
       <c r="O296" s="55"/>
       <c r="P296" s="55"/>
       <c r="Q296" s="55"/>
       <c r="R296" s="55"/>
       <c r="S296" s="55"/>
       <c r="T296" s="55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U296" s="55"/>
       <c r="V296" s="55"/>
@@ -20879,38 +20847,40 @@
       <c r="AI296" s="55"/>
       <c r="AJ296" s="55"/>
     </row>
-    <row r="297" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="55" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B297" s="55" t="s">
-        <v>1954</v>
+        <v>2271</v>
       </c>
       <c r="C297" s="55" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D297" s="55" t="s">
-        <v>2274</v>
-      </c>
+        <v>1942</v>
+      </c>
+      <c r="D297" s="55"/>
       <c r="E297" s="55"/>
-      <c r="F297" s="55"/>
+      <c r="F297" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="G297" s="55"/>
       <c r="H297" s="55"/>
-      <c r="I297" s="55"/>
+      <c r="I297" s="55" t="s">
+        <v>1735</v>
+      </c>
       <c r="J297" s="55"/>
-      <c r="K297" s="55"/>
+      <c r="K297" s="55" t="s">
+        <v>2272</v>
+      </c>
       <c r="L297" s="55"/>
       <c r="M297" s="55"/>
-      <c r="N297" s="55" t="s">
-        <v>1965</v>
-      </c>
+      <c r="N297" s="55"/>
       <c r="O297" s="55"/>
       <c r="P297" s="55"/>
       <c r="Q297" s="55"/>
       <c r="R297" s="55"/>
       <c r="S297" s="55"/>
       <c r="T297" s="55" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U297" s="55"/>
       <c r="V297" s="55"/>
@@ -20919,7 +20889,7 @@
       <c r="Y297" s="55"/>
       <c r="Z297" s="55"/>
       <c r="AA297" s="55"/>
-      <c r="AB297" s="62"/>
+      <c r="AB297" s="55"/>
       <c r="AC297" s="55"/>
       <c r="AD297" s="55"/>
       <c r="AE297" s="55"/>
@@ -20929,40 +20899,38 @@
       <c r="AI297" s="55"/>
       <c r="AJ297" s="55"/>
     </row>
-    <row r="298" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A298" s="55" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B298" s="55" t="s">
-        <v>2276</v>
+        <v>1954</v>
       </c>
       <c r="C298" s="55" t="s">
-        <v>2124</v>
-      </c>
-      <c r="D298" s="55"/>
+        <v>1925</v>
+      </c>
+      <c r="D298" s="55" t="s">
+        <v>2274</v>
+      </c>
       <c r="E298" s="55"/>
-      <c r="F298" s="55" t="s">
-        <v>38</v>
-      </c>
+      <c r="F298" s="55"/>
       <c r="G298" s="55"/>
       <c r="H298" s="55"/>
-      <c r="I298" s="55" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I298" s="55"/>
       <c r="J298" s="55"/>
-      <c r="K298" s="55" t="s">
-        <v>2277</v>
-      </c>
+      <c r="K298" s="55"/>
       <c r="L298" s="55"/>
       <c r="M298" s="55"/>
-      <c r="N298" s="55"/>
+      <c r="N298" s="55" t="s">
+        <v>1965</v>
+      </c>
       <c r="O298" s="55"/>
       <c r="P298" s="55"/>
       <c r="Q298" s="55"/>
       <c r="R298" s="55"/>
       <c r="S298" s="55"/>
       <c r="T298" s="55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U298" s="55"/>
       <c r="V298" s="55"/>
@@ -20971,7 +20939,7 @@
       <c r="Y298" s="55"/>
       <c r="Z298" s="55"/>
       <c r="AA298" s="55"/>
-      <c r="AB298" s="55"/>
+      <c r="AB298" s="62"/>
       <c r="AC298" s="55"/>
       <c r="AD298" s="55"/>
       <c r="AE298" s="55"/>
@@ -20981,19 +20949,21 @@
       <c r="AI298" s="55"/>
       <c r="AJ298" s="55"/>
     </row>
-    <row r="299" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="55" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B299" s="55" t="s">
-        <v>1955</v>
+        <v>2276</v>
       </c>
       <c r="C299" s="55" t="s">
-        <v>1926</v>
+        <v>2124</v>
       </c>
       <c r="D299" s="55"/>
       <c r="E299" s="55"/>
-      <c r="F299" s="55"/>
+      <c r="F299" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="G299" s="55"/>
       <c r="H299" s="55"/>
       <c r="I299" s="55" t="s">
@@ -21001,20 +20971,18 @@
       </c>
       <c r="J299" s="55"/>
       <c r="K299" s="55" t="s">
-        <v>2202</v>
+        <v>2277</v>
       </c>
       <c r="L299" s="55"/>
       <c r="M299" s="55"/>
-      <c r="N299" s="55" t="s">
-        <v>1965</v>
-      </c>
+      <c r="N299" s="55"/>
       <c r="O299" s="55"/>
       <c r="P299" s="55"/>
       <c r="Q299" s="55"/>
       <c r="R299" s="55"/>
       <c r="S299" s="55"/>
       <c r="T299" s="55" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="U299" s="55"/>
       <c r="V299" s="55"/>
@@ -21035,26 +21003,30 @@
     </row>
     <row r="300" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A300" s="55" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B300" s="55" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C300" s="55" t="s">
-        <v>2172</v>
+        <v>1926</v>
       </c>
       <c r="D300" s="55"/>
       <c r="E300" s="55"/>
       <c r="F300" s="55"/>
       <c r="G300" s="55"/>
       <c r="H300" s="55"/>
-      <c r="I300" s="55"/>
+      <c r="I300" s="55" t="s">
+        <v>1735</v>
+      </c>
       <c r="J300" s="55"/>
-      <c r="K300" s="55"/>
+      <c r="K300" s="55" t="s">
+        <v>2202</v>
+      </c>
       <c r="L300" s="55"/>
       <c r="M300" s="55"/>
       <c r="N300" s="55" t="s">
-        <v>2168</v>
+        <v>1965</v>
       </c>
       <c r="O300" s="55"/>
       <c r="P300" s="55"/>
@@ -21062,7 +21034,7 @@
       <c r="R300" s="55"/>
       <c r="S300" s="55"/>
       <c r="T300" s="55" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="U300" s="55"/>
       <c r="V300" s="55"/>
@@ -21083,19 +21055,17 @@
     </row>
     <row r="301" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A301" s="55" t="s">
-        <v>1503</v>
+        <v>15</v>
       </c>
       <c r="B301" s="55" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C301" s="55" t="s">
-        <v>1918</v>
+        <v>2172</v>
       </c>
       <c r="D301" s="55"/>
       <c r="E301" s="55"/>
-      <c r="F301" s="55" t="s">
-        <v>55</v>
-      </c>
+      <c r="F301" s="55"/>
       <c r="G301" s="55"/>
       <c r="H301" s="55"/>
       <c r="I301" s="55"/>
@@ -21112,7 +21082,7 @@
       <c r="R301" s="55"/>
       <c r="S301" s="55"/>
       <c r="T301" s="55" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="U301" s="55"/>
       <c r="V301" s="55"/>
@@ -21133,18 +21103,18 @@
     </row>
     <row r="302" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A302" s="55" t="s">
-        <v>1919</v>
+        <v>1503</v>
       </c>
       <c r="B302" s="55" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="C302" s="55" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="D302" s="55"/>
       <c r="E302" s="55"/>
       <c r="F302" s="55" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G302" s="55"/>
       <c r="H302" s="55"/>
@@ -21154,7 +21124,7 @@
       <c r="L302" s="55"/>
       <c r="M302" s="55"/>
       <c r="N302" s="55" t="s">
-        <v>1958</v>
+        <v>2168</v>
       </c>
       <c r="O302" s="55"/>
       <c r="P302" s="55"/>
@@ -21183,17 +21153,19 @@
     </row>
     <row r="303" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A303" s="55" t="s">
-        <v>11</v>
+        <v>1919</v>
       </c>
       <c r="B303" s="55" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C303" s="55" t="s">
-        <v>1914</v>
+        <v>1920</v>
       </c>
       <c r="D303" s="55"/>
       <c r="E303" s="55"/>
-      <c r="F303" s="55"/>
+      <c r="F303" s="55" t="s">
+        <v>51</v>
+      </c>
       <c r="G303" s="55"/>
       <c r="H303" s="55"/>
       <c r="I303" s="55"/>
@@ -21202,7 +21174,7 @@
       <c r="L303" s="55"/>
       <c r="M303" s="55"/>
       <c r="N303" s="55" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="O303" s="55"/>
       <c r="P303" s="55"/>
@@ -21231,17 +21203,15 @@
     </row>
     <row r="304" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A304" s="55" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B304" s="55" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C304" s="55" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D304" s="55" t="s">
-        <v>2275</v>
-      </c>
+        <v>1914</v>
+      </c>
+      <c r="D304" s="55"/>
       <c r="E304" s="55"/>
       <c r="F304" s="55"/>
       <c r="G304" s="55"/>
@@ -21252,7 +21222,7 @@
       <c r="L304" s="55"/>
       <c r="M304" s="55"/>
       <c r="N304" s="55" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="O304" s="55"/>
       <c r="P304" s="55"/>
@@ -21260,7 +21230,7 @@
       <c r="R304" s="55"/>
       <c r="S304" s="55"/>
       <c r="T304" s="55" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="U304" s="55"/>
       <c r="V304" s="55"/>
@@ -21279,40 +21249,38 @@
       <c r="AI304" s="55"/>
       <c r="AJ304" s="55"/>
     </row>
-    <row r="305" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A305" s="55" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B305" s="55" t="s">
-        <v>2278</v>
+        <v>1963</v>
       </c>
       <c r="C305" s="55" t="s">
-        <v>2127</v>
-      </c>
-      <c r="D305" s="55"/>
+        <v>1565</v>
+      </c>
+      <c r="D305" s="55" t="s">
+        <v>2275</v>
+      </c>
       <c r="E305" s="55"/>
-      <c r="F305" s="55" t="s">
-        <v>38</v>
-      </c>
+      <c r="F305" s="55"/>
       <c r="G305" s="55"/>
       <c r="H305" s="55"/>
-      <c r="I305" s="55" t="s">
-        <v>1735</v>
-      </c>
+      <c r="I305" s="55"/>
       <c r="J305" s="55"/>
-      <c r="K305" s="55" t="s">
-        <v>2279</v>
-      </c>
+      <c r="K305" s="55"/>
       <c r="L305" s="55"/>
       <c r="M305" s="55"/>
-      <c r="N305" s="55"/>
+      <c r="N305" s="55" t="s">
+        <v>1959</v>
+      </c>
       <c r="O305" s="55"/>
       <c r="P305" s="55"/>
       <c r="Q305" s="55"/>
       <c r="R305" s="55"/>
       <c r="S305" s="55"/>
       <c r="T305" s="55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U305" s="55"/>
       <c r="V305" s="55"/>
@@ -21331,26 +21299,30 @@
       <c r="AI305" s="55"/>
       <c r="AJ305" s="55"/>
     </row>
-    <row r="306" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="55" t="s">
-        <v>2041</v>
+        <v>11</v>
       </c>
       <c r="B306" s="55" t="s">
-        <v>1860</v>
+        <v>2278</v>
       </c>
       <c r="C306" s="55" t="s">
-        <v>1910</v>
+        <v>2127</v>
       </c>
       <c r="D306" s="55"/>
       <c r="E306" s="55"/>
       <c r="F306" s="55" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G306" s="55"/>
       <c r="H306" s="55"/>
-      <c r="I306" s="55"/>
+      <c r="I306" s="55" t="s">
+        <v>1735</v>
+      </c>
       <c r="J306" s="55"/>
-      <c r="K306" s="55"/>
+      <c r="K306" s="55" t="s">
+        <v>2279</v>
+      </c>
       <c r="L306" s="55"/>
       <c r="M306" s="55"/>
       <c r="N306" s="55"/>
@@ -21360,11 +21332,9 @@
       <c r="R306" s="55"/>
       <c r="S306" s="55"/>
       <c r="T306" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="U306" s="55">
-        <v>32</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="U306" s="55"/>
       <c r="V306" s="55"/>
       <c r="W306" s="55"/>
       <c r="X306" s="55"/>
@@ -21386,10 +21356,10 @@
         <v>2041</v>
       </c>
       <c r="B307" s="55" t="s">
-        <v>2017</v>
+        <v>1860</v>
       </c>
       <c r="C307" s="55" t="s">
-        <v>2019</v>
+        <v>1910</v>
       </c>
       <c r="D307" s="55"/>
       <c r="E307" s="55"/>
@@ -21433,17 +21403,19 @@
     </row>
     <row r="308" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A308" s="55" t="s">
-        <v>11</v>
+        <v>2041</v>
       </c>
       <c r="B308" s="55" t="s">
-        <v>1861</v>
+        <v>2017</v>
       </c>
       <c r="C308" s="55" t="s">
-        <v>1872</v>
+        <v>2019</v>
       </c>
       <c r="D308" s="55"/>
       <c r="E308" s="55"/>
-      <c r="F308" s="55"/>
+      <c r="F308" s="55" t="s">
+        <v>51</v>
+      </c>
       <c r="G308" s="55"/>
       <c r="H308" s="55"/>
       <c r="I308" s="55"/>
@@ -21451,9 +21423,7 @@
       <c r="K308" s="55"/>
       <c r="L308" s="55"/>
       <c r="M308" s="55"/>
-      <c r="N308" s="55" t="s">
-        <v>2018</v>
-      </c>
+      <c r="N308" s="55"/>
       <c r="O308" s="55"/>
       <c r="P308" s="55"/>
       <c r="Q308" s="55"/>
@@ -21463,7 +21433,7 @@
         <v>102</v>
       </c>
       <c r="U308" s="55">
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="V308" s="55"/>
       <c r="W308" s="55"/>
@@ -21483,10 +21453,14 @@
     </row>
     <row r="309" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A309" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B309" s="55"/>
-      <c r="C309" s="55"/>
+        <v>11</v>
+      </c>
+      <c r="B309" s="55" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C309" s="55" t="s">
+        <v>1872</v>
+      </c>
       <c r="D309" s="55"/>
       <c r="E309" s="55"/>
       <c r="F309" s="55"/>
@@ -21497,14 +21471,20 @@
       <c r="K309" s="55"/>
       <c r="L309" s="55"/>
       <c r="M309" s="55"/>
-      <c r="N309" s="55"/>
+      <c r="N309" s="55" t="s">
+        <v>2018</v>
+      </c>
       <c r="O309" s="55"/>
       <c r="P309" s="55"/>
       <c r="Q309" s="55"/>
       <c r="R309" s="55"/>
       <c r="S309" s="55"/>
-      <c r="T309" s="55"/>
-      <c r="U309" s="55"/>
+      <c r="T309" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="U309" s="55">
+        <v>1024</v>
+      </c>
       <c r="V309" s="55"/>
       <c r="W309" s="55"/>
       <c r="X309" s="55"/>
@@ -21521,11 +21501,51 @@
       <c r="AI309" s="55"/>
       <c r="AJ309" s="55"/>
     </row>
-    <row r="311" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A310" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B310" s="55"/>
+      <c r="C310" s="55"/>
+      <c r="D310" s="55"/>
+      <c r="E310" s="55"/>
+      <c r="F310" s="55"/>
+      <c r="G310" s="55"/>
+      <c r="H310" s="55"/>
+      <c r="I310" s="55"/>
+      <c r="J310" s="55"/>
+      <c r="K310" s="55"/>
+      <c r="L310" s="55"/>
+      <c r="M310" s="55"/>
+      <c r="N310" s="55"/>
+      <c r="O310" s="55"/>
+      <c r="P310" s="55"/>
+      <c r="Q310" s="55"/>
+      <c r="R310" s="55"/>
+      <c r="S310" s="55"/>
+      <c r="T310" s="55"/>
+      <c r="U310" s="55"/>
+      <c r="V310" s="55"/>
+      <c r="W310" s="55"/>
+      <c r="X310" s="55"/>
+      <c r="Y310" s="55"/>
+      <c r="Z310" s="55"/>
+      <c r="AA310" s="55"/>
+      <c r="AB310" s="55"/>
+      <c r="AC310" s="55"/>
+      <c r="AD310" s="55"/>
+      <c r="AE310" s="55"/>
+      <c r="AF310" s="55"/>
+      <c r="AG310" s="55"/>
+      <c r="AH310" s="55"/>
+      <c r="AI310" s="55"/>
+      <c r="AJ310" s="55"/>
+    </row>
+    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>1631</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C312" t="s">
         <v>1632</v>
       </c>
     </row>
@@ -21535,50 +21555,50 @@
   <conditionalFormatting sqref="B59:B63">
     <cfRule type="duplicateValues" dxfId="14" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B220">
+  <conditionalFormatting sqref="B221">
     <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B223:B224">
+  <conditionalFormatting sqref="B224:B225">
     <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B225:B229 B218:B219 B221:B222 B213:B216">
+  <conditionalFormatting sqref="B226:B230 B219:B220 B222:B223 B214:B217">
     <cfRule type="duplicateValues" dxfId="11" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B233 B210 B177 B97 B53:B54 B153 B64 B2:B24 B27:B28">
+  <conditionalFormatting sqref="B234 B211 B177 B97 B53:B54 B153 B64 B2:B24 B27:B28">
     <cfRule type="duplicateValues" dxfId="10" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B262:B267">
+  <conditionalFormatting sqref="B263:B268">
     <cfRule type="duplicateValues" dxfId="9" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B272 B230 B274">
+  <conditionalFormatting sqref="B273 B231 B275">
     <cfRule type="duplicateValues" dxfId="8" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B273">
+  <conditionalFormatting sqref="B274">
     <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B275">
+  <conditionalFormatting sqref="B276">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" sqref="A97 A153 A177 A210 A233 A218:A231 A215 A59:A64 A266:A267 A53:A54 A212:A213 A262 A264 A272 A274 A57 A45:A51 A2:A24 A27:A30" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="A97 A153 A177 A211 A234 A219:A232 A216 A59:A64 A267:A268 A53:A54 A213:A214 A263 A265 A273 A275 A57 A45:A51 A2:A24 A27:A30" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>QuestionTypes</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Name" error="Names must be unique and cannot contain spaces, non-ASCII characters, reserved keywords, or special symbols. For ArcGIS Enterprise feature layers, names must not exceed 31 characters." sqref="B97 B153 B177 B210 B233 B218:B231 B266:B267 B215 B59:B64 B53:B54 B212:B213 B262 B264 B272 B274 B57 B45:B51 B2:B24 B27:B30" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Name" error="Names must be unique and cannot contain spaces, non-ASCII characters, reserved keywords, or special symbols. For ArcGIS Enterprise feature layers, names must not exceed 31 characters." sqref="B97 B153 B177 B211 B234 B219:B232 B267:B268 B216 B59:B64 B53:B54 B213:B214 B263 B265 B273 B275 B57 B45:B51 B2:B24 B27:B30" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>AND(LEN(B2)=LEN(SUBSTITUTE(B2," ","")),LEN(B2)&lt;32,COUNTIF(Reserved,B2) = 0,SUMPRODUCT(--ISNUMBER(SEARCH(SpecialChars,B2)))=0)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G97 I97 I153 G153 G177 I177 I210 G210 I233 G233 I2:I4 G218:G231 G274 G266:G267 I266:I267 I215 I218:I231 G215 G59:G64 I59:I64 I53:I54 G53:G54 I212:I213 G212:G213 G262 I262 I264 G264 I272 G272 I274 I57 G57 I45:I51 G45:G51 G2:G24 I6:I24 G27:G30 I27:I30" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G97 I97 I153 G153 G177 I177 I211 G211 I234 G234 I2:I4 G219:G232 G275 G267:G268 I267:I268 I216 I219:I232 G216 G59:G64 I59:I64 I53:I54 G53:G54 I213:I214 G213:G214 G263 I263 I265 G265 I273 G273 I275 I57 G57 I45:I51 G45:G51 G2:G24 I6:I24 G27:G30 I27:I30" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Bind Type" error="The value you have entered is not one of the supported bind types." sqref="S97 S153 S177 S210 S233 S218:S231 S266:S267 S215 S59:S64 S53:S54 S212:S213 S262 S264 S274 S57 S45:S51 S2:S24 S27:S30" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Bind Type" error="The value you have entered is not one of the supported bind types." sqref="S97 S153 S177 S211 S234 S219:S232 S267:S268 S216 S59:S64 S53:S54 S213:S214 S263 S265 S275 S57 S45:S51 S2:S24 S27:S30" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>BindTypes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Type" error="The value you have entered is not one of the supported field types." sqref="T97 T153 T177 T210 T233 T218:T231 T266:T267 S272:T272 T215 T274 T59:T64 T57 T53:T54 T212:T213 T262 T264 T45:T51 T2:T24 T27:T30 T78:T81" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Type" error="The value you have entered is not one of the supported field types." sqref="T97 T153 T177 T211 T234 T219:T232 T267:T268 S273:T273 T216 T275 T59:T64 T57 T53:T54 T213:T214 T263 T265 T45:T51 T2:T24 T27:T30 T78:T81" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>EsriFieldTypes</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Length" error="Please enter a whole number greater than zero." sqref="U97 U153 U177 U210 U233 U218:U231 U266:U267 U215 U59:U64 U57 U53:U54 U212:U213 U262 U264 U272 U274 U45:U51 U2:U24 U27:U30" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Length" error="Please enter a whole number greater than zero." sqref="U97 U153 U177 U211 U234 U219:U232 U267:U268 U216 U59:U64 U57 U53:U54 U213:U214 U263 U265 U273 U275 U45:U51 U2:U24 U27:U30" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F97 F153 F177 F210 F233 F266:F267 F219:F231 F215 F59:F64 F274 F212:F213 F262 F264 F272 F2:F24 F53 F27:F28" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F97 F153 F177 F211 F234 F267:F268 F220:F232 F216 F59:F64 F275 F213:F214 F263 F265 F273 F2:F24 F53 F27:F28" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>IF(LEFT(A2,4)="rank",appearRank,IF(LEFT(A2,8)="select_m",appearSelMulti,IF(LEFT(A2,8)="select_o",appearSelOne,IF(A2="begin group",appearBeginGrp,IF(A2="begin repeat",appearBeginRpt,INDIRECT("appear"&amp;A2))))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -22829,10 +22849,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>1331</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -22857,10 +22877,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>1326</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25048,7 +25068,7 @@
       <c r="C32" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="78" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -25059,7 +25079,7 @@
       <c r="C33" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="D33" s="77"/>
+      <c r="D33" s="78"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="31" t="s">
@@ -25079,7 +25099,7 @@
       <c r="C35" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="D35" s="77" t="s">
+      <c r="D35" s="78" t="s">
         <v>1485</v>
       </c>
     </row>
@@ -25090,7 +25110,7 @@
       <c r="C36" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="D36" s="77"/>
+      <c r="D36" s="78"/>
     </row>
     <row r="37" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
@@ -25099,7 +25119,7 @@
       <c r="C37" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="D37" s="77"/>
+      <c r="D37" s="78"/>
     </row>
     <row r="38" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B38" s="31" t="s">
@@ -25130,7 +25150,7 @@
       <c r="C40" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="78" t="s">
         <v>1479</v>
       </c>
     </row>
@@ -25141,7 +25161,7 @@
       <c r="C41" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="D41" s="77"/>
+      <c r="D41" s="78"/>
     </row>
     <row r="42" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">

--- a/survey/f032871677f74a8a940a693187de0ca9/NW Florida Hydrologic Field Form.xlsx
+++ b/survey/f032871677f74a8a940a693187de0ca9/NW Florida Hydrologic Field Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E304DF8A-83F5-4E84-A19D-2048B3F15EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4DF492-C451-431C-99F0-455A68AF3EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44940" yWindow="2025" windowWidth="22980" windowHeight="12225" tabRatio="594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="10" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="2338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="2338">
   <si>
     <t>Question type</t>
   </si>
@@ -8513,8 +8513,8 @@
   <dimension ref="A1:AK312"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK194" sqref="AK194"/>
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N194" sqref="N194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16064,6 +16064,9 @@
       </c>
       <c r="C194" t="s">
         <v>2337</v>
+      </c>
+      <c r="N194" t="s">
+        <v>2293</v>
       </c>
       <c r="T194" t="s">
         <v>98</v>
